--- a/outputs-HGR-r202/train-g__CAG-873_split_pruned.xlsx
+++ b/outputs-HGR-r202/train-g__CAG-873_split_pruned.xlsx
@@ -10,6 +10,7 @@
     <sheet name="quadratic-svm-score4" sheetId="3" r:id="rId5"/>
     <sheet name="quadratic-svm-score3" sheetId="4" r:id="rId6"/>
     <sheet name="quadratic-svm-score2" sheetId="5" r:id="rId7"/>
+    <sheet name="quadratic-svm-score1" sheetId="6" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
@@ -17,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="595" uniqueCount="562">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="743" uniqueCount="699">
   <si>
     <t>Row</t>
   </si>
@@ -1703,6 +1704,417 @@
   </si>
   <si>
     <t>label_UMGS1855_72.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS209_15.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS209_24.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS209_26.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS209_3.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS209_30.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS209_37.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS209_39.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS209_4.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS209_41.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS209_42.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS209_48.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS209_50.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS209_56.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS209_59.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS209_60.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS209_62.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS259_11.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS259_14.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS259_17.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS259_28.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS259_32.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS259_35.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS259_36.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS259_4.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS259_41.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS259_43.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS259_5.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS259_50.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS259_51.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS259_56.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS259_57.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS259_60.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS259_66.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS259_70.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS401_12.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS401_13.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS401_15.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS401_16.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS401_17.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS401_2.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS401_20.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS401_21.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS401_23.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS401_24.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS401_37.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS401_38.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS401_49.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS401_61.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS401_63.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS401_68.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1145_19.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1145_2.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1145_21.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1145_28.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1145_3.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1145_31.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1145_33.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1145_37.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1145_40.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1145_41.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1295_12.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1295_22.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1295_27.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1295_46.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1295_48.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1295_51.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1295_53.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1295_54.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1295_56.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1295_58.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1295_6.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1295_63.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1295_65.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1704_0.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1704_10.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1704_104.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1704_11.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1704_114.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1704_116.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1704_125.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1704_132.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1704_134.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1704_135.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1704_29.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1704_34.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1704_4.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1704_40.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1704_46.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1704_49.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1704_57.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1704_59.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1704_69.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1704_7.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1704_71.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1704_76.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1704_79.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1704_96.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1748_104.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1748_105.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1748_112.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1748_118.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1748_120.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1748_130.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1748_131.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1748_133.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1748_136.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1748_15.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1748_19.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1748_28.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1748_44.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1748_47.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1748_48.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1748_49.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1748_50.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1748_58.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1748_66.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1748_75.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1748_78.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1748_82.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1748_86.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1748_89.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1748_93.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1855_11.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1855_17.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1855_18.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1855_26.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1855_27.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1855_30.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1855_31.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1855_37.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1855_53.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1855_57.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1855_64.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1855_66.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1855_68.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1855_69.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1855_70.fasta</t>
   </si>
 </sst>
 </file>
@@ -1723,7 +2135,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -1739,11 +2151,13 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
@@ -1753,6 +2167,8 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -21271,4 +21687,4856 @@
     </row>
   </sheetData>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:K138"/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="24.7109375" customWidth="true"/>
+    <col min="2" max="2" width="22.85546875" customWidth="true"/>
+    <col min="3" max="3" width="22.85546875" customWidth="true"/>
+    <col min="4" max="4" width="22.85546875" customWidth="true"/>
+    <col min="5" max="5" width="22.85546875" customWidth="true"/>
+    <col min="6" max="6" width="22.85546875" customWidth="true"/>
+    <col min="7" max="7" width="22.85546875" customWidth="true"/>
+    <col min="8" max="8" width="22.85546875" customWidth="true"/>
+    <col min="9" max="9" width="22.85546875" customWidth="true"/>
+    <col min="10" max="10" width="10.28515625" customWidth="true"/>
+    <col min="11" max="11" width="6.42578125" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="J1" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="K1" s="9" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="9" t="s">
+        <v>562</v>
+      </c>
+      <c r="B2">
+        <v>0.62760146288428165</v>
+      </c>
+      <c r="C2">
+        <v>0.35221974823691438</v>
+      </c>
+      <c r="D2">
+        <v>0.00073674508329920761</v>
+      </c>
+      <c r="E2">
+        <v>8.0531476176138186e-08</v>
+      </c>
+      <c r="F2">
+        <v>0.019384382352079149</v>
+      </c>
+      <c r="G2">
+        <v>4.9886729652722485e-06</v>
+      </c>
+      <c r="H2">
+        <v>4.2452826330906722e-06</v>
+      </c>
+      <c r="I2">
+        <v>4.8346956351044243e-05</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+      <c r="K2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="9" t="s">
+        <v>563</v>
+      </c>
+      <c r="B3">
+        <v>0.822521922983947</v>
+      </c>
+      <c r="C3">
+        <v>0.086135540455992088</v>
+      </c>
+      <c r="D3">
+        <v>0.018518591450964895</v>
+      </c>
+      <c r="E3">
+        <v>3.2996658624185613e-05</v>
+      </c>
+      <c r="F3">
+        <v>0.041190119971476362</v>
+      </c>
+      <c r="G3">
+        <v>1.3401116503431674e-06</v>
+      </c>
+      <c r="H3">
+        <v>8.8151071547510684e-06</v>
+      </c>
+      <c r="I3">
+        <v>0.031590673260190383</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+      <c r="K3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="9" t="s">
+        <v>564</v>
+      </c>
+      <c r="B4">
+        <v>0.15401731641220384</v>
+      </c>
+      <c r="C4">
+        <v>0.26524572192673845</v>
+      </c>
+      <c r="D4">
+        <v>0.029458410880199196</v>
+      </c>
+      <c r="E4">
+        <v>2.8926647465186841e-06</v>
+      </c>
+      <c r="F4">
+        <v>0.0012004890076371226</v>
+      </c>
+      <c r="G4">
+        <v>5.8728738687232355e-06</v>
+      </c>
+      <c r="H4">
+        <v>0.00021289291985192502</v>
+      </c>
+      <c r="I4">
+        <v>0.54985640331475427</v>
+      </c>
+      <c r="J4">
+        <v>8</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="9" t="s">
+        <v>565</v>
+      </c>
+      <c r="B5">
+        <v>0.78533969667803349</v>
+      </c>
+      <c r="C5">
+        <v>0.21409743271913381</v>
+      </c>
+      <c r="D5">
+        <v>0.00021162176583788036</v>
+      </c>
+      <c r="E5">
+        <v>3.6432975621767195e-07</v>
+      </c>
+      <c r="F5">
+        <v>6.3872166040379811e-05</v>
+      </c>
+      <c r="G5">
+        <v>5.1441410050285119e-08</v>
+      </c>
+      <c r="H5">
+        <v>2.9765042813469303e-06</v>
+      </c>
+      <c r="I5">
+        <v>0.00028398439550686135</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="9" t="s">
+        <v>566</v>
+      </c>
+      <c r="B6">
+        <v>0.19060799557071459</v>
+      </c>
+      <c r="C6">
+        <v>0.80069346501425231</v>
+      </c>
+      <c r="D6">
+        <v>0.00089103753968686162</v>
+      </c>
+      <c r="E6">
+        <v>5.1814777693834175e-06</v>
+      </c>
+      <c r="F6">
+        <v>0.006167261553762321</v>
+      </c>
+      <c r="G6">
+        <v>6.0217736507048945e-06</v>
+      </c>
+      <c r="H6">
+        <v>5.3272286343548286e-05</v>
+      </c>
+      <c r="I6">
+        <v>0.0015757647838202753</v>
+      </c>
+      <c r="J6">
+        <v>2</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="9" t="s">
+        <v>567</v>
+      </c>
+      <c r="B7">
+        <v>0.90368035984062822</v>
+      </c>
+      <c r="C7">
+        <v>0.095654501432645103</v>
+      </c>
+      <c r="D7">
+        <v>7.6684566400816778e-05</v>
+      </c>
+      <c r="E7">
+        <v>4.7431924832515054e-08</v>
+      </c>
+      <c r="F7">
+        <v>0.000177871100469543</v>
+      </c>
+      <c r="G7">
+        <v>2.1692727192042569e-08</v>
+      </c>
+      <c r="H7">
+        <v>0.00019988065507734734</v>
+      </c>
+      <c r="I7">
+        <v>0.00021063328012684598</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="9" t="s">
+        <v>568</v>
+      </c>
+      <c r="B8">
+        <v>0.89519819035507542</v>
+      </c>
+      <c r="C8">
+        <v>0.095430566680135623</v>
+      </c>
+      <c r="D8">
+        <v>0.0022802137406383763</v>
+      </c>
+      <c r="E8">
+        <v>5.4321338879634204e-05</v>
+      </c>
+      <c r="F8">
+        <v>0.0056254203686175713</v>
+      </c>
+      <c r="G8">
+        <v>1.7901704962816678e-06</v>
+      </c>
+      <c r="H8">
+        <v>4.7959008808649061e-06</v>
+      </c>
+      <c r="I8">
+        <v>0.0014047014452761985</v>
+      </c>
+      <c r="J8">
+        <v>1</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="9" t="s">
+        <v>569</v>
+      </c>
+      <c r="B9">
+        <v>0.80301703512306277</v>
+      </c>
+      <c r="C9">
+        <v>0.19298244048312838</v>
+      </c>
+      <c r="D9">
+        <v>0.00019565485492779731</v>
+      </c>
+      <c r="E9">
+        <v>5.8163021229655256e-07</v>
+      </c>
+      <c r="F9">
+        <v>0.0035887361352375403</v>
+      </c>
+      <c r="G9">
+        <v>4.0271740727942951e-07</v>
+      </c>
+      <c r="H9">
+        <v>7.1212396806563589e-07</v>
+      </c>
+      <c r="I9">
+        <v>0.00021443693205576279</v>
+      </c>
+      <c r="J9">
+        <v>1</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="9" t="s">
+        <v>570</v>
+      </c>
+      <c r="B10">
+        <v>0.55131210779348783</v>
+      </c>
+      <c r="C10">
+        <v>0.43559001044304124</v>
+      </c>
+      <c r="D10">
+        <v>0.0068568010569859707</v>
+      </c>
+      <c r="E10">
+        <v>3.6482708112175726e-08</v>
+      </c>
+      <c r="F10">
+        <v>0.0056370912474219522</v>
+      </c>
+      <c r="G10">
+        <v>5.8850061670588701e-06</v>
+      </c>
+      <c r="H10">
+        <v>0.00048594989549471241</v>
+      </c>
+      <c r="I10">
+        <v>0.00011211807469303009</v>
+      </c>
+      <c r="J10">
+        <v>1</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="9" t="s">
+        <v>571</v>
+      </c>
+      <c r="B11">
+        <v>0.93339305754932222</v>
+      </c>
+      <c r="C11">
+        <v>0.013540101425930755</v>
+      </c>
+      <c r="D11">
+        <v>0.00035016948093408856</v>
+      </c>
+      <c r="E11">
+        <v>7.3960901087097851e-06</v>
+      </c>
+      <c r="F11">
+        <v>0.052231337065443452</v>
+      </c>
+      <c r="G11">
+        <v>9.7283322429322508e-07</v>
+      </c>
+      <c r="H11">
+        <v>2.4303321532948739e-07</v>
+      </c>
+      <c r="I11">
+        <v>0.00047672252182114799</v>
+      </c>
+      <c r="J11">
+        <v>1</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="9" t="s">
+        <v>572</v>
+      </c>
+      <c r="B12">
+        <v>0.87252780665619245</v>
+      </c>
+      <c r="C12">
+        <v>0.090451615456443563</v>
+      </c>
+      <c r="D12">
+        <v>0.02062145549193499</v>
+      </c>
+      <c r="E12">
+        <v>0.00021151771961827522</v>
+      </c>
+      <c r="F12">
+        <v>0.013742454069885847</v>
+      </c>
+      <c r="G12">
+        <v>1.9913657609797778e-06</v>
+      </c>
+      <c r="H12">
+        <v>1.791688399569088e-05</v>
+      </c>
+      <c r="I12">
+        <v>0.002425242356168123</v>
+      </c>
+      <c r="J12">
+        <v>1</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="9" t="s">
+        <v>573</v>
+      </c>
+      <c r="B13">
+        <v>0.39626025290302697</v>
+      </c>
+      <c r="C13">
+        <v>0.32469915856968529</v>
+      </c>
+      <c r="D13">
+        <v>0.021884448632505903</v>
+      </c>
+      <c r="E13">
+        <v>0.00073888391479017424</v>
+      </c>
+      <c r="F13">
+        <v>0.21139547027947503</v>
+      </c>
+      <c r="G13">
+        <v>0.0038118879586722331</v>
+      </c>
+      <c r="H13">
+        <v>6.5773283604413142e-05</v>
+      </c>
+      <c r="I13">
+        <v>0.041144124458240054</v>
+      </c>
+      <c r="J13">
+        <v>1</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="9" t="s">
+        <v>574</v>
+      </c>
+      <c r="B14">
+        <v>0.32889246844023745</v>
+      </c>
+      <c r="C14">
+        <v>0.25718061685556665</v>
+      </c>
+      <c r="D14">
+        <v>0.1719838975863516</v>
+      </c>
+      <c r="E14">
+        <v>0.00325808604637984</v>
+      </c>
+      <c r="F14">
+        <v>0.22000591105707748</v>
+      </c>
+      <c r="G14">
+        <v>6.1411031372294477e-05</v>
+      </c>
+      <c r="H14">
+        <v>0.0010545714404606424</v>
+      </c>
+      <c r="I14">
+        <v>0.017563037542553908</v>
+      </c>
+      <c r="J14">
+        <v>1</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="9" t="s">
+        <v>575</v>
+      </c>
+      <c r="B15">
+        <v>3.265049198957503e-05</v>
+      </c>
+      <c r="C15">
+        <v>0.88298063645747571</v>
+      </c>
+      <c r="D15">
+        <v>0.016280882203978806</v>
+      </c>
+      <c r="E15">
+        <v>7.1660482272604462e-11</v>
+      </c>
+      <c r="F15">
+        <v>0.097665412981853064</v>
+      </c>
+      <c r="G15">
+        <v>6.805545082519898e-08</v>
+      </c>
+      <c r="H15">
+        <v>2.3641938520260977e-05</v>
+      </c>
+      <c r="I15">
+        <v>0.0030167077990712454</v>
+      </c>
+      <c r="J15">
+        <v>2</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="9" t="s">
+        <v>576</v>
+      </c>
+      <c r="B16">
+        <v>0.035633278040718738</v>
+      </c>
+      <c r="C16">
+        <v>0.7064289170559086</v>
+      </c>
+      <c r="D16">
+        <v>0.17815571943911843</v>
+      </c>
+      <c r="E16">
+        <v>4.3042869219709222e-07</v>
+      </c>
+      <c r="F16">
+        <v>0.012631745882790195</v>
+      </c>
+      <c r="G16">
+        <v>5.8242838685889708e-05</v>
+      </c>
+      <c r="H16">
+        <v>0.00188540687233598</v>
+      </c>
+      <c r="I16">
+        <v>0.06520625944175007</v>
+      </c>
+      <c r="J16">
+        <v>2</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="9" t="s">
+        <v>577</v>
+      </c>
+      <c r="B17">
+        <v>5.8605932758773302e-11</v>
+      </c>
+      <c r="C17">
+        <v>0.43288732720760448</v>
+      </c>
+      <c r="D17">
+        <v>0.42416615253858631</v>
+      </c>
+      <c r="E17">
+        <v>2.368309590451001e-14</v>
+      </c>
+      <c r="F17">
+        <v>0.13326728873560859</v>
+      </c>
+      <c r="G17">
+        <v>2.368309590451001e-14</v>
+      </c>
+      <c r="H17">
+        <v>6.9477824268253567e-06</v>
+      </c>
+      <c r="I17">
+        <v>0.0096722836771206255</v>
+      </c>
+      <c r="J17">
+        <v>2</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="9" t="s">
+        <v>578</v>
+      </c>
+      <c r="B18">
+        <v>0.22106403681735712</v>
+      </c>
+      <c r="C18">
+        <v>0.77824471663092332</v>
+      </c>
+      <c r="D18">
+        <v>0.00013230042847032665</v>
+      </c>
+      <c r="E18">
+        <v>1.8643708112814345e-07</v>
+      </c>
+      <c r="F18">
+        <v>0.00010205144251261535</v>
+      </c>
+      <c r="G18">
+        <v>1.4072830644562786e-07</v>
+      </c>
+      <c r="H18">
+        <v>2.3262463234632495e-05</v>
+      </c>
+      <c r="I18">
+        <v>0.00043330505211426216</v>
+      </c>
+      <c r="J18">
+        <v>2</v>
+      </c>
+      <c r="K18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="9" t="s">
+        <v>579</v>
+      </c>
+      <c r="B19">
+        <v>0.62092350905717042</v>
+      </c>
+      <c r="C19">
+        <v>0.34906942153182502</v>
+      </c>
+      <c r="D19">
+        <v>0.02023963250587707</v>
+      </c>
+      <c r="E19">
+        <v>1.8909628066752257e-08</v>
+      </c>
+      <c r="F19">
+        <v>0.0097015720233195567</v>
+      </c>
+      <c r="G19">
+        <v>4.7989234099379107e-06</v>
+      </c>
+      <c r="H19">
+        <v>3.6091050899628951e-05</v>
+      </c>
+      <c r="I19">
+        <v>2.4955997870219015e-05</v>
+      </c>
+      <c r="J19">
+        <v>1</v>
+      </c>
+      <c r="K19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="9" t="s">
+        <v>580</v>
+      </c>
+      <c r="B20">
+        <v>0.11919104689862839</v>
+      </c>
+      <c r="C20">
+        <v>0.86819481650301933</v>
+      </c>
+      <c r="D20">
+        <v>0.00038301722174668312</v>
+      </c>
+      <c r="E20">
+        <v>3.2666403701026696e-07</v>
+      </c>
+      <c r="F20">
+        <v>0.012079458667521567</v>
+      </c>
+      <c r="G20">
+        <v>1.730153425209542e-05</v>
+      </c>
+      <c r="H20">
+        <v>1.1537758611234154e-05</v>
+      </c>
+      <c r="I20">
+        <v>0.00012249475218365324</v>
+      </c>
+      <c r="J20">
+        <v>2</v>
+      </c>
+      <c r="K20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="9" t="s">
+        <v>581</v>
+      </c>
+      <c r="B21">
+        <v>0.13178536595420318</v>
+      </c>
+      <c r="C21">
+        <v>0.80220920350538771</v>
+      </c>
+      <c r="D21">
+        <v>0.0093997933980631537</v>
+      </c>
+      <c r="E21">
+        <v>2.540649287927521e-06</v>
+      </c>
+      <c r="F21">
+        <v>0.055155881776131704</v>
+      </c>
+      <c r="G21">
+        <v>1.6133197225706605e-05</v>
+      </c>
+      <c r="H21">
+        <v>5.7334617960724242e-05</v>
+      </c>
+      <c r="I21">
+        <v>0.0013737469017399749</v>
+      </c>
+      <c r="J21">
+        <v>2</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="9" t="s">
+        <v>582</v>
+      </c>
+      <c r="B22">
+        <v>0.85073359650613023</v>
+      </c>
+      <c r="C22">
+        <v>0.11825357065414893</v>
+      </c>
+      <c r="D22">
+        <v>0.010443850891307461</v>
+      </c>
+      <c r="E22">
+        <v>1.5905666115735128e-07</v>
+      </c>
+      <c r="F22">
+        <v>0.020381146040312357</v>
+      </c>
+      <c r="G22">
+        <v>4.1296524398923801e-06</v>
+      </c>
+      <c r="H22">
+        <v>0.0001469835234553754</v>
+      </c>
+      <c r="I22">
+        <v>3.6563675544664318e-05</v>
+      </c>
+      <c r="J22">
+        <v>1</v>
+      </c>
+      <c r="K22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="9" t="s">
+        <v>583</v>
+      </c>
+      <c r="B23">
+        <v>0.1671600281630321</v>
+      </c>
+      <c r="C23">
+        <v>0.79590746606775187</v>
+      </c>
+      <c r="D23">
+        <v>0.006885566820979727</v>
+      </c>
+      <c r="E23">
+        <v>1.2009449622799273e-06</v>
+      </c>
+      <c r="F23">
+        <v>0.028274504837745153</v>
+      </c>
+      <c r="G23">
+        <v>0.00010482133677730218</v>
+      </c>
+      <c r="H23">
+        <v>0.0011930828028944036</v>
+      </c>
+      <c r="I23">
+        <v>0.0004733290258570372</v>
+      </c>
+      <c r="J23">
+        <v>2</v>
+      </c>
+      <c r="K23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="9" t="s">
+        <v>584</v>
+      </c>
+      <c r="B24">
+        <v>0.56686851482678813</v>
+      </c>
+      <c r="C24">
+        <v>0.42954306749378923</v>
+      </c>
+      <c r="D24">
+        <v>0.00041039685107000472</v>
+      </c>
+      <c r="E24">
+        <v>9.2128121089666317e-08</v>
+      </c>
+      <c r="F24">
+        <v>0.0019436235600349436</v>
+      </c>
+      <c r="G24">
+        <v>3.9760408876226509e-07</v>
+      </c>
+      <c r="H24">
+        <v>1.6637106803575044e-05</v>
+      </c>
+      <c r="I24">
+        <v>0.0012172704293043407</v>
+      </c>
+      <c r="J24">
+        <v>1</v>
+      </c>
+      <c r="K24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="9" t="s">
+        <v>585</v>
+      </c>
+      <c r="B25">
+        <v>0.21683404799043368</v>
+      </c>
+      <c r="C25">
+        <v>0.74048275247361595</v>
+      </c>
+      <c r="D25">
+        <v>0.0014227362175769705</v>
+      </c>
+      <c r="E25">
+        <v>8.2182433364128278e-06</v>
+      </c>
+      <c r="F25">
+        <v>0.040230680789854055</v>
+      </c>
+      <c r="G25">
+        <v>0.00016424818944512433</v>
+      </c>
+      <c r="H25">
+        <v>7.3944461074646516e-05</v>
+      </c>
+      <c r="I25">
+        <v>0.00078337163466331598</v>
+      </c>
+      <c r="J25">
+        <v>2</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="9" t="s">
+        <v>586</v>
+      </c>
+      <c r="B26">
+        <v>0.16002183561709993</v>
+      </c>
+      <c r="C26">
+        <v>0.81366086648985037</v>
+      </c>
+      <c r="D26">
+        <v>0.0016480315504288489</v>
+      </c>
+      <c r="E26">
+        <v>9.2657848907163543e-07</v>
+      </c>
+      <c r="F26">
+        <v>0.023085397296116673</v>
+      </c>
+      <c r="G26">
+        <v>4.7131016232160425e-05</v>
+      </c>
+      <c r="H26">
+        <v>0.00026324301171667199</v>
+      </c>
+      <c r="I26">
+        <v>0.0012725684400663551</v>
+      </c>
+      <c r="J26">
+        <v>2</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="9" t="s">
+        <v>587</v>
+      </c>
+      <c r="B27">
+        <v>0.12227360325169698</v>
+      </c>
+      <c r="C27">
+        <v>0.84596654144539263</v>
+      </c>
+      <c r="D27">
+        <v>0.0015878831864018714</v>
+      </c>
+      <c r="E27">
+        <v>1.1995158226081195e-05</v>
+      </c>
+      <c r="F27">
+        <v>0.019709296454539053</v>
+      </c>
+      <c r="G27">
+        <v>3.0318377186427203e-05</v>
+      </c>
+      <c r="H27">
+        <v>2.6667295159851801e-05</v>
+      </c>
+      <c r="I27">
+        <v>0.010393694831397248</v>
+      </c>
+      <c r="J27">
+        <v>2</v>
+      </c>
+      <c r="K27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="9" t="s">
+        <v>588</v>
+      </c>
+      <c r="B28">
+        <v>0.27645936202400861</v>
+      </c>
+      <c r="C28">
+        <v>0.7169447104025144</v>
+      </c>
+      <c r="D28">
+        <v>0.00084923722284724681</v>
+      </c>
+      <c r="E28">
+        <v>6.5115153360235982e-09</v>
+      </c>
+      <c r="F28">
+        <v>0.0056879267139696857</v>
+      </c>
+      <c r="G28">
+        <v>1.5497525314559907e-06</v>
+      </c>
+      <c r="H28">
+        <v>1.9861949560681392e-05</v>
+      </c>
+      <c r="I28">
+        <v>3.7345423052660966e-05</v>
+      </c>
+      <c r="J28">
+        <v>2</v>
+      </c>
+      <c r="K28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="9" t="s">
+        <v>589</v>
+      </c>
+      <c r="B29">
+        <v>0.066556070995735253</v>
+      </c>
+      <c r="C29">
+        <v>0.84303916848224181</v>
+      </c>
+      <c r="D29">
+        <v>0.0047660849188525447</v>
+      </c>
+      <c r="E29">
+        <v>0.0054838078135740001</v>
+      </c>
+      <c r="F29">
+        <v>0.0086333253875479684</v>
+      </c>
+      <c r="G29">
+        <v>0.00034895172453557765</v>
+      </c>
+      <c r="H29">
+        <v>0.042125588877722761</v>
+      </c>
+      <c r="I29">
+        <v>0.029047001799789994</v>
+      </c>
+      <c r="J29">
+        <v>2</v>
+      </c>
+      <c r="K29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="9" t="s">
+        <v>590</v>
+      </c>
+      <c r="B30">
+        <v>0.38960884951838343</v>
+      </c>
+      <c r="C30">
+        <v>0.47156863951271494</v>
+      </c>
+      <c r="D30">
+        <v>0.063884348151033291</v>
+      </c>
+      <c r="E30">
+        <v>2.5429538471651378e-07</v>
+      </c>
+      <c r="F30">
+        <v>0.06916408381638868</v>
+      </c>
+      <c r="G30">
+        <v>3.4623615886356682e-05</v>
+      </c>
+      <c r="H30">
+        <v>0.0042920882843480914</v>
+      </c>
+      <c r="I30">
+        <v>0.0014471128058604502</v>
+      </c>
+      <c r="J30">
+        <v>2</v>
+      </c>
+      <c r="K30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="9" t="s">
+        <v>591</v>
+      </c>
+      <c r="B31">
+        <v>0.022418480976031482</v>
+      </c>
+      <c r="C31">
+        <v>0.65552376870568829</v>
+      </c>
+      <c r="D31">
+        <v>0.026080070991508129</v>
+      </c>
+      <c r="E31">
+        <v>2.2842615259232121e-05</v>
+      </c>
+      <c r="F31">
+        <v>0.256276792276599</v>
+      </c>
+      <c r="G31">
+        <v>0.033383930413363939</v>
+      </c>
+      <c r="H31">
+        <v>0.00015046713507545602</v>
+      </c>
+      <c r="I31">
+        <v>0.0061436468864744893</v>
+      </c>
+      <c r="J31">
+        <v>2</v>
+      </c>
+      <c r="K31">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="9" t="s">
+        <v>592</v>
+      </c>
+      <c r="B32">
+        <v>0.028925104019192266</v>
+      </c>
+      <c r="C32">
+        <v>0.23213725198979299</v>
+      </c>
+      <c r="D32">
+        <v>0.37498093865671567</v>
+      </c>
+      <c r="E32">
+        <v>4.1970312040362944e-06</v>
+      </c>
+      <c r="F32">
+        <v>0.25558628948947365</v>
+      </c>
+      <c r="G32">
+        <v>0.099797335198400533</v>
+      </c>
+      <c r="H32">
+        <v>0.000286678454281241</v>
+      </c>
+      <c r="I32">
+        <v>0.0082822051609395628</v>
+      </c>
+      <c r="J32">
+        <v>3</v>
+      </c>
+      <c r="K32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="9" t="s">
+        <v>593</v>
+      </c>
+      <c r="B33">
+        <v>0.15663464099151281</v>
+      </c>
+      <c r="C33">
+        <v>0.52831826025235618</v>
+      </c>
+      <c r="D33">
+        <v>0.040446861825786454</v>
+      </c>
+      <c r="E33">
+        <v>7.9612132883435676e-06</v>
+      </c>
+      <c r="F33">
+        <v>0.10881174620113027</v>
+      </c>
+      <c r="G33">
+        <v>0.00013480513480505722</v>
+      </c>
+      <c r="H33">
+        <v>0.12642144057021712</v>
+      </c>
+      <c r="I33">
+        <v>0.039224283810903884</v>
+      </c>
+      <c r="J33">
+        <v>2</v>
+      </c>
+      <c r="K33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="9" t="s">
+        <v>594</v>
+      </c>
+      <c r="B34">
+        <v>0.11259859868560426</v>
+      </c>
+      <c r="C34">
+        <v>0.51493991517241589</v>
+      </c>
+      <c r="D34">
+        <v>0.099646432856763112</v>
+      </c>
+      <c r="E34">
+        <v>2.7779034317472871e-05</v>
+      </c>
+      <c r="F34">
+        <v>0.034738450975977594</v>
+      </c>
+      <c r="G34">
+        <v>0.0095027821652655196</v>
+      </c>
+      <c r="H34">
+        <v>0.024437146014353806</v>
+      </c>
+      <c r="I34">
+        <v>0.20410889509530217</v>
+      </c>
+      <c r="J34">
+        <v>2</v>
+      </c>
+      <c r="K34">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="9" t="s">
+        <v>595</v>
+      </c>
+      <c r="B35">
+        <v>6.8966582565737576e-07</v>
+      </c>
+      <c r="C35">
+        <v>0.063633361022428961</v>
+      </c>
+      <c r="D35">
+        <v>0.55242216125178922</v>
+      </c>
+      <c r="E35">
+        <v>4.0703495283101253e-11</v>
+      </c>
+      <c r="F35">
+        <v>0.36514748386817336</v>
+      </c>
+      <c r="G35">
+        <v>3.3633233068028994e-08</v>
+      </c>
+      <c r="H35">
+        <v>0.013788457144265225</v>
+      </c>
+      <c r="I35">
+        <v>0.0050078133735808562</v>
+      </c>
+      <c r="J35">
+        <v>3</v>
+      </c>
+      <c r="K35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="9" t="s">
+        <v>596</v>
+      </c>
+      <c r="B36">
+        <v>0.003600102474122127</v>
+      </c>
+      <c r="C36">
+        <v>0.0019054250988372826</v>
+      </c>
+      <c r="D36">
+        <v>0.99350366683390356</v>
+      </c>
+      <c r="E36">
+        <v>2.2626129784983372e-05</v>
+      </c>
+      <c r="F36">
+        <v>0.00088064739047718046</v>
+      </c>
+      <c r="G36">
+        <v>8.9070843933710041e-06</v>
+      </c>
+      <c r="H36">
+        <v>2.4304701513690887e-07</v>
+      </c>
+      <c r="I36">
+        <v>7.8381941466160735e-05</v>
+      </c>
+      <c r="J36">
+        <v>3</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="9" t="s">
+        <v>597</v>
+      </c>
+      <c r="B37">
+        <v>0.00037190309866172493</v>
+      </c>
+      <c r="C37">
+        <v>0.013168073981629242</v>
+      </c>
+      <c r="D37">
+        <v>0.98328732798396712</v>
+      </c>
+      <c r="E37">
+        <v>0.0025731574965569483</v>
+      </c>
+      <c r="F37">
+        <v>0.00054940039033570041</v>
+      </c>
+      <c r="G37">
+        <v>1.3256449270265528e-05</v>
+      </c>
+      <c r="H37">
+        <v>1.4918549571725492e-07</v>
+      </c>
+      <c r="I37">
+        <v>3.6731414083246951e-05</v>
+      </c>
+      <c r="J37">
+        <v>3</v>
+      </c>
+      <c r="K37">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="9" t="s">
+        <v>598</v>
+      </c>
+      <c r="B38">
+        <v>0.0042012162502396708</v>
+      </c>
+      <c r="C38">
+        <v>0.00051048682876089042</v>
+      </c>
+      <c r="D38">
+        <v>0.9793251162189045</v>
+      </c>
+      <c r="E38">
+        <v>3.6311969554853671e-05</v>
+      </c>
+      <c r="F38">
+        <v>0.015789802820622759</v>
+      </c>
+      <c r="G38">
+        <v>2.4696951207246059e-05</v>
+      </c>
+      <c r="H38">
+        <v>3.2396521216654397e-08</v>
+      </c>
+      <c r="I38">
+        <v>0.00011233656418887768</v>
+      </c>
+      <c r="J38">
+        <v>3</v>
+      </c>
+      <c r="K38">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="9" t="s">
+        <v>599</v>
+      </c>
+      <c r="B39">
+        <v>0.00025643314193067861</v>
+      </c>
+      <c r="C39">
+        <v>0.035461221362117698</v>
+      </c>
+      <c r="D39">
+        <v>0.96385700279441777</v>
+      </c>
+      <c r="E39">
+        <v>4.0594047935602034e-06</v>
+      </c>
+      <c r="F39">
+        <v>0.00034788146943647209</v>
+      </c>
+      <c r="G39">
+        <v>4.1131027585481361e-05</v>
+      </c>
+      <c r="H39">
+        <v>1.1024359754643537e-07</v>
+      </c>
+      <c r="I39">
+        <v>3.2160556120673855e-05</v>
+      </c>
+      <c r="J39">
+        <v>3</v>
+      </c>
+      <c r="K39">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="9" t="s">
+        <v>600</v>
+      </c>
+      <c r="B40">
+        <v>0.00088070553604923188</v>
+      </c>
+      <c r="C40">
+        <v>0.0044587592949910859</v>
+      </c>
+      <c r="D40">
+        <v>0.99192226158085572</v>
+      </c>
+      <c r="E40">
+        <v>0.0010580302396672014</v>
+      </c>
+      <c r="F40">
+        <v>0.0015643471706158084</v>
+      </c>
+      <c r="G40">
+        <v>1.3686336292758461e-05</v>
+      </c>
+      <c r="H40">
+        <v>4.5637457016268931e-07</v>
+      </c>
+      <c r="I40">
+        <v>0.0001017534669579618</v>
+      </c>
+      <c r="J40">
+        <v>3</v>
+      </c>
+      <c r="K40">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="9" t="s">
+        <v>601</v>
+      </c>
+      <c r="B41">
+        <v>0.0081533358861971324</v>
+      </c>
+      <c r="C41">
+        <v>0.0026971688320797968</v>
+      </c>
+      <c r="D41">
+        <v>0.9608320591571613</v>
+      </c>
+      <c r="E41">
+        <v>1.5038929998384135e-07</v>
+      </c>
+      <c r="F41">
+        <v>0.028294312517222146</v>
+      </c>
+      <c r="G41">
+        <v>6.6245769075871542e-07</v>
+      </c>
+      <c r="H41">
+        <v>1.1366358285447517e-07</v>
+      </c>
+      <c r="I41">
+        <v>2.2197096765820076e-05</v>
+      </c>
+      <c r="J41">
+        <v>3</v>
+      </c>
+      <c r="K41">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="9" t="s">
+        <v>602</v>
+      </c>
+      <c r="B42">
+        <v>0.0031882231669843933</v>
+      </c>
+      <c r="C42">
+        <v>0.0015687995918461728</v>
+      </c>
+      <c r="D42">
+        <v>0.99405790441549036</v>
+      </c>
+      <c r="E42">
+        <v>5.2420451430812067e-06</v>
+      </c>
+      <c r="F42">
+        <v>0.0010261657553318059</v>
+      </c>
+      <c r="G42">
+        <v>3.0932556369394032e-05</v>
+      </c>
+      <c r="H42">
+        <v>2.7422940574411934e-07</v>
+      </c>
+      <c r="I42">
+        <v>0.0001224582394289283</v>
+      </c>
+      <c r="J42">
+        <v>3</v>
+      </c>
+      <c r="K42">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="9" t="s">
+        <v>603</v>
+      </c>
+      <c r="B43">
+        <v>0.0020617376670821978</v>
+      </c>
+      <c r="C43">
+        <v>0.0047282975964562978</v>
+      </c>
+      <c r="D43">
+        <v>0.92677866009761289</v>
+      </c>
+      <c r="E43">
+        <v>2.1661549609068294e-05</v>
+      </c>
+      <c r="F43">
+        <v>0.066352501257669907</v>
+      </c>
+      <c r="G43">
+        <v>3.4604829473974222e-06</v>
+      </c>
+      <c r="H43">
+        <v>1.6287729854930333e-07</v>
+      </c>
+      <c r="I43">
+        <v>5.3518471323607433e-05</v>
+      </c>
+      <c r="J43">
+        <v>3</v>
+      </c>
+      <c r="K43">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="9" t="s">
+        <v>604</v>
+      </c>
+      <c r="B44">
+        <v>0.00038375444467936883</v>
+      </c>
+      <c r="C44">
+        <v>0.038787874318302239</v>
+      </c>
+      <c r="D44">
+        <v>0.95135711520915633</v>
+      </c>
+      <c r="E44">
+        <v>7.6305711639064876e-07</v>
+      </c>
+      <c r="F44">
+        <v>0.0094492341588992175</v>
+      </c>
+      <c r="G44">
+        <v>7.0145426831016231e-06</v>
+      </c>
+      <c r="H44">
+        <v>1.5069044599590884e-07</v>
+      </c>
+      <c r="I44">
+        <v>1.4093578717419584e-05</v>
+      </c>
+      <c r="J44">
+        <v>3</v>
+      </c>
+      <c r="K44">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="9" t="s">
+        <v>605</v>
+      </c>
+      <c r="B45">
+        <v>0.001143260014037464</v>
+      </c>
+      <c r="C45">
+        <v>0.0063553823053053137</v>
+      </c>
+      <c r="D45">
+        <v>0.99188205255209017</v>
+      </c>
+      <c r="E45">
+        <v>1.5003907803672384e-06</v>
+      </c>
+      <c r="F45">
+        <v>0.00047880761869376141</v>
+      </c>
+      <c r="G45">
+        <v>4.4449443007785106e-05</v>
+      </c>
+      <c r="H45">
+        <v>3.0557535163094588e-07</v>
+      </c>
+      <c r="I45">
+        <v>9.4242100733483373e-05</v>
+      </c>
+      <c r="J45">
+        <v>3</v>
+      </c>
+      <c r="K45">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="9" t="s">
+        <v>606</v>
+      </c>
+      <c r="B46">
+        <v>0.023559618016598529</v>
+      </c>
+      <c r="C46">
+        <v>0.00085550014139889328</v>
+      </c>
+      <c r="D46">
+        <v>0.96246807265191381</v>
+      </c>
+      <c r="E46">
+        <v>0.0067664326465389276</v>
+      </c>
+      <c r="F46">
+        <v>0.0062518467831936576</v>
+      </c>
+      <c r="G46">
+        <v>7.3009173530153834e-06</v>
+      </c>
+      <c r="H46">
+        <v>3.835470035977851e-06</v>
+      </c>
+      <c r="I46">
+        <v>8.7393372967206037e-05</v>
+      </c>
+      <c r="J46">
+        <v>3</v>
+      </c>
+      <c r="K46">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="9" t="s">
+        <v>607</v>
+      </c>
+      <c r="B47">
+        <v>0.01145317500883357</v>
+      </c>
+      <c r="C47">
+        <v>0.0035443904150593451</v>
+      </c>
+      <c r="D47">
+        <v>0.93942365924149585</v>
+      </c>
+      <c r="E47">
+        <v>5.3832087184962661e-05</v>
+      </c>
+      <c r="F47">
+        <v>0.045306805987520245</v>
+      </c>
+      <c r="G47">
+        <v>9.7869631579332027e-05</v>
+      </c>
+      <c r="H47">
+        <v>9.333919436443382e-07</v>
+      </c>
+      <c r="I47">
+        <v>0.0001193342363831197</v>
+      </c>
+      <c r="J47">
+        <v>3</v>
+      </c>
+      <c r="K47">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="9" t="s">
+        <v>608</v>
+      </c>
+      <c r="B48">
+        <v>0.03071802500267358</v>
+      </c>
+      <c r="C48">
+        <v>0.056050824694209099</v>
+      </c>
+      <c r="D48">
+        <v>0.86104869673041273</v>
+      </c>
+      <c r="E48">
+        <v>4.4374095752730761e-07</v>
+      </c>
+      <c r="F48">
+        <v>0.051597364111255782</v>
+      </c>
+      <c r="G48">
+        <v>3.0253140015434908e-05</v>
+      </c>
+      <c r="H48">
+        <v>3.2303603314148936e-05</v>
+      </c>
+      <c r="I48">
+        <v>0.0005220889771618075</v>
+      </c>
+      <c r="J48">
+        <v>3</v>
+      </c>
+      <c r="K48">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="9" t="s">
+        <v>609</v>
+      </c>
+      <c r="B49">
+        <v>0.0021779993432342057</v>
+      </c>
+      <c r="C49">
+        <v>0.0049153384961102666</v>
+      </c>
+      <c r="D49">
+        <v>0.96886543839150241</v>
+      </c>
+      <c r="E49">
+        <v>2.2785338562582184e-07</v>
+      </c>
+      <c r="F49">
+        <v>0.016485588532364225</v>
+      </c>
+      <c r="G49">
+        <v>0.00012872053263070178</v>
+      </c>
+      <c r="H49">
+        <v>0.0024161153136590028</v>
+      </c>
+      <c r="I49">
+        <v>0.0050105715371137061</v>
+      </c>
+      <c r="J49">
+        <v>3</v>
+      </c>
+      <c r="K49">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="9" t="s">
+        <v>610</v>
+      </c>
+      <c r="B50">
+        <v>0.00093175901219510321</v>
+      </c>
+      <c r="C50">
+        <v>0.13621044868085685</v>
+      </c>
+      <c r="D50">
+        <v>0.78795255405132381</v>
+      </c>
+      <c r="E50">
+        <v>2.5646687875611452e-07</v>
+      </c>
+      <c r="F50">
+        <v>0.066789734988523766</v>
+      </c>
+      <c r="G50">
+        <v>2.0228193847418908e-05</v>
+      </c>
+      <c r="H50">
+        <v>4.9943549375811755e-05</v>
+      </c>
+      <c r="I50">
+        <v>0.0080450750569984533</v>
+      </c>
+      <c r="J50">
+        <v>3</v>
+      </c>
+      <c r="K50">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="9" t="s">
+        <v>611</v>
+      </c>
+      <c r="B51">
+        <v>4.7840284356119358e-06</v>
+      </c>
+      <c r="C51">
+        <v>0.21458530883139196</v>
+      </c>
+      <c r="D51">
+        <v>0.21125471397521042</v>
+      </c>
+      <c r="E51">
+        <v>1.116627850038402e-07</v>
+      </c>
+      <c r="F51">
+        <v>0.25383905973738585</v>
+      </c>
+      <c r="G51">
+        <v>0.049010377894096104</v>
+      </c>
+      <c r="H51">
+        <v>0.24453778508848112</v>
+      </c>
+      <c r="I51">
+        <v>0.0267678587822139</v>
+      </c>
+      <c r="J51">
+        <v>5</v>
+      </c>
+      <c r="K51">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="9" t="s">
+        <v>612</v>
+      </c>
+      <c r="B52">
+        <v>0.001660033244930557</v>
+      </c>
+      <c r="C52">
+        <v>0.00098327325122553409</v>
+      </c>
+      <c r="D52">
+        <v>0.00047810277350301218</v>
+      </c>
+      <c r="E52">
+        <v>0.99108373019484419</v>
+      </c>
+      <c r="F52">
+        <v>0.0057498449479004982</v>
+      </c>
+      <c r="G52">
+        <v>1.2109871524416697e-05</v>
+      </c>
+      <c r="H52">
+        <v>6.8038807374965062e-06</v>
+      </c>
+      <c r="I52">
+        <v>2.6101835334081602e-05</v>
+      </c>
+      <c r="J52">
+        <v>4</v>
+      </c>
+      <c r="K52">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="9" t="s">
+        <v>613</v>
+      </c>
+      <c r="B53">
+        <v>0.0010729374021725777</v>
+      </c>
+      <c r="C53">
+        <v>0.0012835057089659822</v>
+      </c>
+      <c r="D53">
+        <v>0.0052556316229827255</v>
+      </c>
+      <c r="E53">
+        <v>0.99191845745495799</v>
+      </c>
+      <c r="F53">
+        <v>0.00043857104590575659</v>
+      </c>
+      <c r="G53">
+        <v>2.118721097120731e-05</v>
+      </c>
+      <c r="H53">
+        <v>2.6585402815145332e-07</v>
+      </c>
+      <c r="I53">
+        <v>9.4437000157601804e-06</v>
+      </c>
+      <c r="J53">
+        <v>4</v>
+      </c>
+      <c r="K53">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="9" t="s">
+        <v>614</v>
+      </c>
+      <c r="B54">
+        <v>0.00027285437018909064</v>
+      </c>
+      <c r="C54">
+        <v>0.010221031347822332</v>
+      </c>
+      <c r="D54">
+        <v>0.00011075364287375133</v>
+      </c>
+      <c r="E54">
+        <v>0.97739178158407336</v>
+      </c>
+      <c r="F54">
+        <v>0.0066330215690957759</v>
+      </c>
+      <c r="G54">
+        <v>2.4282371609045228e-06</v>
+      </c>
+      <c r="H54">
+        <v>2.7477540214095592e-05</v>
+      </c>
+      <c r="I54">
+        <v>0.0053406517085707646</v>
+      </c>
+      <c r="J54">
+        <v>4</v>
+      </c>
+      <c r="K54">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="9" t="s">
+        <v>615</v>
+      </c>
+      <c r="B55">
+        <v>0.0187140024202497</v>
+      </c>
+      <c r="C55">
+        <v>0.00017568087789657485</v>
+      </c>
+      <c r="D55">
+        <v>0.00077028894235145126</v>
+      </c>
+      <c r="E55">
+        <v>0.97182029149794247</v>
+      </c>
+      <c r="F55">
+        <v>0.0084657595155815078</v>
+      </c>
+      <c r="G55">
+        <v>4.4496381418964801e-06</v>
+      </c>
+      <c r="H55">
+        <v>2.6479253062536114e-05</v>
+      </c>
+      <c r="I55">
+        <v>2.3047854773871511e-05</v>
+      </c>
+      <c r="J55">
+        <v>4</v>
+      </c>
+      <c r="K55">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="9" t="s">
+        <v>616</v>
+      </c>
+      <c r="B56">
+        <v>0.00013290623476539177</v>
+      </c>
+      <c r="C56">
+        <v>0.003000201192410751</v>
+      </c>
+      <c r="D56">
+        <v>0.00048685497268644755</v>
+      </c>
+      <c r="E56">
+        <v>0.99488712447467409</v>
+      </c>
+      <c r="F56">
+        <v>0.0014715252098588881</v>
+      </c>
+      <c r="G56">
+        <v>1.067811796663537e-05</v>
+      </c>
+      <c r="H56">
+        <v>2.0634327552670325e-07</v>
+      </c>
+      <c r="I56">
+        <v>1.0503454362324502e-05</v>
+      </c>
+      <c r="J56">
+        <v>4</v>
+      </c>
+      <c r="K56">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="9" t="s">
+        <v>617</v>
+      </c>
+      <c r="B57">
+        <v>0.002442025732803361</v>
+      </c>
+      <c r="C57">
+        <v>0.0049567158498097126</v>
+      </c>
+      <c r="D57">
+        <v>0.0011266798123108468</v>
+      </c>
+      <c r="E57">
+        <v>0.98511266671840714</v>
+      </c>
+      <c r="F57">
+        <v>0.006109964864653818</v>
+      </c>
+      <c r="G57">
+        <v>2.9503638171623624e-05</v>
+      </c>
+      <c r="H57">
+        <v>0.00010805070708241032</v>
+      </c>
+      <c r="I57">
+        <v>0.00011439267676102535</v>
+      </c>
+      <c r="J57">
+        <v>4</v>
+      </c>
+      <c r="K57">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="9" t="s">
+        <v>618</v>
+      </c>
+      <c r="B58">
+        <v>0.0073864471069898345</v>
+      </c>
+      <c r="C58">
+        <v>0.0089195461234569551</v>
+      </c>
+      <c r="D58">
+        <v>0.00054126042787297555</v>
+      </c>
+      <c r="E58">
+        <v>0.96960506235836574</v>
+      </c>
+      <c r="F58">
+        <v>0.012652111410973251</v>
+      </c>
+      <c r="G58">
+        <v>2.9198068393495882e-06</v>
+      </c>
+      <c r="H58">
+        <v>5.4993900123908339e-05</v>
+      </c>
+      <c r="I58">
+        <v>0.00083765886537817073</v>
+      </c>
+      <c r="J58">
+        <v>4</v>
+      </c>
+      <c r="K58">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="9" t="s">
+        <v>619</v>
+      </c>
+      <c r="B59">
+        <v>0.0070896575548557439</v>
+      </c>
+      <c r="C59">
+        <v>0.0026206825701678735</v>
+      </c>
+      <c r="D59">
+        <v>0.0021357473674582074</v>
+      </c>
+      <c r="E59">
+        <v>0.97833471456295629</v>
+      </c>
+      <c r="F59">
+        <v>0.0055416580489577698</v>
+      </c>
+      <c r="G59">
+        <v>3.4073342872492297e-05</v>
+      </c>
+      <c r="H59">
+        <v>0.003892491858060385</v>
+      </c>
+      <c r="I59">
+        <v>0.00035097469467124982</v>
+      </c>
+      <c r="J59">
+        <v>4</v>
+      </c>
+      <c r="K59">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="9" t="s">
+        <v>620</v>
+      </c>
+      <c r="B60">
+        <v>0.012419664640036937</v>
+      </c>
+      <c r="C60">
+        <v>0.001450770152927588</v>
+      </c>
+      <c r="D60">
+        <v>0.10723297147544601</v>
+      </c>
+      <c r="E60">
+        <v>0.86418638519726676</v>
+      </c>
+      <c r="F60">
+        <v>0.0050945169515311927</v>
+      </c>
+      <c r="G60">
+        <v>1.2757657535568488e-05</v>
+      </c>
+      <c r="H60">
+        <v>0.0091271432320703845</v>
+      </c>
+      <c r="I60">
+        <v>0.00047579069318557006</v>
+      </c>
+      <c r="J60">
+        <v>4</v>
+      </c>
+      <c r="K60">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="9" t="s">
+        <v>621</v>
+      </c>
+      <c r="B61">
+        <v>0.007084051348819247</v>
+      </c>
+      <c r="C61">
+        <v>0.0025712465114961945</v>
+      </c>
+      <c r="D61">
+        <v>0.001349118736862833</v>
+      </c>
+      <c r="E61">
+        <v>0.88075354066577327</v>
+      </c>
+      <c r="F61">
+        <v>0.015756542910551126</v>
+      </c>
+      <c r="G61">
+        <v>0.00015511316823495504</v>
+      </c>
+      <c r="H61">
+        <v>0.091049634645246291</v>
+      </c>
+      <c r="I61">
+        <v>0.0012807520130161377</v>
+      </c>
+      <c r="J61">
+        <v>4</v>
+      </c>
+      <c r="K61">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="9" t="s">
+        <v>622</v>
+      </c>
+      <c r="B62">
+        <v>0.0062393877393142573</v>
+      </c>
+      <c r="C62">
+        <v>0.0005973817630886872</v>
+      </c>
+      <c r="D62">
+        <v>0.00089363067019147455</v>
+      </c>
+      <c r="E62">
+        <v>2.0460909869682619e-08</v>
+      </c>
+      <c r="F62">
+        <v>0.9916702051188222</v>
+      </c>
+      <c r="G62">
+        <v>0.00028862886983053266</v>
+      </c>
+      <c r="H62">
+        <v>2.3700364138665689e-06</v>
+      </c>
+      <c r="I62">
+        <v>0.00030837534142890766</v>
+      </c>
+      <c r="J62">
+        <v>5</v>
+      </c>
+      <c r="K62">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="9" t="s">
+        <v>623</v>
+      </c>
+      <c r="B63">
+        <v>9.9500087366425041e-05</v>
+      </c>
+      <c r="C63">
+        <v>0.042416647059386622</v>
+      </c>
+      <c r="D63">
+        <v>0.0045945769825024982</v>
+      </c>
+      <c r="E63">
+        <v>1.2116609777714757e-05</v>
+      </c>
+      <c r="F63">
+        <v>0.95076694871694023</v>
+      </c>
+      <c r="G63">
+        <v>0.00056206893035738433</v>
+      </c>
+      <c r="H63">
+        <v>2.0856613271304554e-07</v>
+      </c>
+      <c r="I63">
+        <v>0.0015479330475364358</v>
+      </c>
+      <c r="J63">
+        <v>5</v>
+      </c>
+      <c r="K63">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="9" t="s">
+        <v>624</v>
+      </c>
+      <c r="B64">
+        <v>0.0012924068486696349</v>
+      </c>
+      <c r="C64">
+        <v>0.020460856210373041</v>
+      </c>
+      <c r="D64">
+        <v>0.019563790521766551</v>
+      </c>
+      <c r="E64">
+        <v>1.1560037470235056e-07</v>
+      </c>
+      <c r="F64">
+        <v>0.95695300408984874</v>
+      </c>
+      <c r="G64">
+        <v>0.00074384356974833954</v>
+      </c>
+      <c r="H64">
+        <v>1.0468723891337658e-05</v>
+      </c>
+      <c r="I64">
+        <v>0.00097551443532760179</v>
+      </c>
+      <c r="J64">
+        <v>5</v>
+      </c>
+      <c r="K64">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="9" t="s">
+        <v>625</v>
+      </c>
+      <c r="B65">
+        <v>0.010827356821169629</v>
+      </c>
+      <c r="C65">
+        <v>0.0095478545146320051</v>
+      </c>
+      <c r="D65">
+        <v>0.00094104671067240576</v>
+      </c>
+      <c r="E65">
+        <v>0.027085682946560805</v>
+      </c>
+      <c r="F65">
+        <v>0.94813216635356223</v>
+      </c>
+      <c r="G65">
+        <v>0.0012172262613854708</v>
+      </c>
+      <c r="H65">
+        <v>1.4249024350621153e-05</v>
+      </c>
+      <c r="I65">
+        <v>0.00223441736766682</v>
+      </c>
+      <c r="J65">
+        <v>5</v>
+      </c>
+      <c r="K65">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="9" t="s">
+        <v>626</v>
+      </c>
+      <c r="B66">
+        <v>0.015065939916188452</v>
+      </c>
+      <c r="C66">
+        <v>0.0037169996199204283</v>
+      </c>
+      <c r="D66">
+        <v>0.054925678205285919</v>
+      </c>
+      <c r="E66">
+        <v>9.0928389406035802e-06</v>
+      </c>
+      <c r="F66">
+        <v>0.92230479533402543</v>
+      </c>
+      <c r="G66">
+        <v>0.0017019030836637596</v>
+      </c>
+      <c r="H66">
+        <v>0.00063477241952916263</v>
+      </c>
+      <c r="I66">
+        <v>0.0016408185824461881</v>
+      </c>
+      <c r="J66">
+        <v>5</v>
+      </c>
+      <c r="K66">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="9" t="s">
+        <v>627</v>
+      </c>
+      <c r="B67">
+        <v>0.030972842518768556</v>
+      </c>
+      <c r="C67">
+        <v>0.056666856270970865</v>
+      </c>
+      <c r="D67">
+        <v>0.15755172430361922</v>
+      </c>
+      <c r="E67">
+        <v>0.00013263940099567613</v>
+      </c>
+      <c r="F67">
+        <v>0.74946634595561856</v>
+      </c>
+      <c r="G67">
+        <v>0.0029405849726111483</v>
+      </c>
+      <c r="H67">
+        <v>0.0002961755222328276</v>
+      </c>
+      <c r="I67">
+        <v>0.0019728310551831623</v>
+      </c>
+      <c r="J67">
+        <v>5</v>
+      </c>
+      <c r="K67">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="9" t="s">
+        <v>628</v>
+      </c>
+      <c r="B68">
+        <v>0.03282646578256268</v>
+      </c>
+      <c r="C68">
+        <v>0.0059290700586339395</v>
+      </c>
+      <c r="D68">
+        <v>0.011137874258526342</v>
+      </c>
+      <c r="E68">
+        <v>0.00019626464941595615</v>
+      </c>
+      <c r="F68">
+        <v>0.73833734008188412</v>
+      </c>
+      <c r="G68">
+        <v>0.1839232299109036</v>
+      </c>
+      <c r="H68">
+        <v>0.013185802437453696</v>
+      </c>
+      <c r="I68">
+        <v>0.014463952820619826</v>
+      </c>
+      <c r="J68">
+        <v>5</v>
+      </c>
+      <c r="K68">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="9" t="s">
+        <v>629</v>
+      </c>
+      <c r="B69">
+        <v>0.0067668514454050539</v>
+      </c>
+      <c r="C69">
+        <v>0.07106970794489835</v>
+      </c>
+      <c r="D69">
+        <v>0.0051196061485612385</v>
+      </c>
+      <c r="E69">
+        <v>5.3153237621826882e-05</v>
+      </c>
+      <c r="F69">
+        <v>0.3192674423163791</v>
+      </c>
+      <c r="G69">
+        <v>0.53832319101838944</v>
+      </c>
+      <c r="H69">
+        <v>3.3453105042358309e-05</v>
+      </c>
+      <c r="I69">
+        <v>0.059366594783702493</v>
+      </c>
+      <c r="J69">
+        <v>6</v>
+      </c>
+      <c r="K69">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="9" t="s">
+        <v>630</v>
+      </c>
+      <c r="B70">
+        <v>0.018237333335067562</v>
+      </c>
+      <c r="C70">
+        <v>0.0029533798389971382</v>
+      </c>
+      <c r="D70">
+        <v>0.06663535342938795</v>
+      </c>
+      <c r="E70">
+        <v>9.4552677764465101e-05</v>
+      </c>
+      <c r="F70">
+        <v>0.879036022992709</v>
+      </c>
+      <c r="G70">
+        <v>0.001783292830063757</v>
+      </c>
+      <c r="H70">
+        <v>0.0033962152003291705</v>
+      </c>
+      <c r="I70">
+        <v>0.027863849695681047</v>
+      </c>
+      <c r="J70">
+        <v>5</v>
+      </c>
+      <c r="K70">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="9" t="s">
+        <v>631</v>
+      </c>
+      <c r="B71">
+        <v>0.020807308666716918</v>
+      </c>
+      <c r="C71">
+        <v>0.034946647501802715</v>
+      </c>
+      <c r="D71">
+        <v>0.29958612567982229</v>
+      </c>
+      <c r="E71">
+        <v>2.364312429941315e-05</v>
+      </c>
+      <c r="F71">
+        <v>0.33702157080950018</v>
+      </c>
+      <c r="G71">
+        <v>0.27481996473302295</v>
+      </c>
+      <c r="H71">
+        <v>0.021330398401536523</v>
+      </c>
+      <c r="I71">
+        <v>0.011464341083298855</v>
+      </c>
+      <c r="J71">
+        <v>5</v>
+      </c>
+      <c r="K71">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="9" t="s">
+        <v>632</v>
+      </c>
+      <c r="B72">
+        <v>0.0063239746633031455</v>
+      </c>
+      <c r="C72">
+        <v>9.5388907088248849e-05</v>
+      </c>
+      <c r="D72">
+        <v>3.8525055526828606e-05</v>
+      </c>
+      <c r="E72">
+        <v>2.2592190660962135e-08</v>
+      </c>
+      <c r="F72">
+        <v>0.992972211161952</v>
+      </c>
+      <c r="G72">
+        <v>9.7756587839987971e-06</v>
+      </c>
+      <c r="H72">
+        <v>9.6468990847369741e-08</v>
+      </c>
+      <c r="I72">
+        <v>0.00056000549216408903</v>
+      </c>
+      <c r="J72">
+        <v>5</v>
+      </c>
+      <c r="K72">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="9" t="s">
+        <v>633</v>
+      </c>
+      <c r="B73">
+        <v>0.0043008097073221402</v>
+      </c>
+      <c r="C73">
+        <v>0.02972086726413628</v>
+      </c>
+      <c r="D73">
+        <v>0.01397941606218602</v>
+      </c>
+      <c r="E73">
+        <v>0.010095492873163386</v>
+      </c>
+      <c r="F73">
+        <v>0.080358686350175401</v>
+      </c>
+      <c r="G73">
+        <v>0.83856045264547086</v>
+      </c>
+      <c r="H73">
+        <v>0.0097357064584513119</v>
+      </c>
+      <c r="I73">
+        <v>0.01324856863909462</v>
+      </c>
+      <c r="J73">
+        <v>6</v>
+      </c>
+      <c r="K73">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="9" t="s">
+        <v>634</v>
+      </c>
+      <c r="B74">
+        <v>0.0029938073230286123</v>
+      </c>
+      <c r="C74">
+        <v>0.21438083290988641</v>
+      </c>
+      <c r="D74">
+        <v>0.22799401121058713</v>
+      </c>
+      <c r="E74">
+        <v>0.00026356801941544836</v>
+      </c>
+      <c r="F74">
+        <v>0.072682151626698596</v>
+      </c>
+      <c r="G74">
+        <v>0.32592410116171344</v>
+      </c>
+      <c r="H74">
+        <v>0.12053303215616089</v>
+      </c>
+      <c r="I74">
+        <v>0.035228495592509394</v>
+      </c>
+      <c r="J74">
+        <v>6</v>
+      </c>
+      <c r="K74">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="9" t="s">
+        <v>635</v>
+      </c>
+      <c r="B75">
+        <v>0.0011143819991144878</v>
+      </c>
+      <c r="C75">
+        <v>0.0079097019569363443</v>
+      </c>
+      <c r="D75">
+        <v>0.0012823256249300369</v>
+      </c>
+      <c r="E75">
+        <v>7.7163937592180846e-10</v>
+      </c>
+      <c r="F75">
+        <v>0.0041403263190921144</v>
+      </c>
+      <c r="G75">
+        <v>0.98407804061294391</v>
+      </c>
+      <c r="H75">
+        <v>3.7310687992393441e-06</v>
+      </c>
+      <c r="I75">
+        <v>0.0014714916465445235</v>
+      </c>
+      <c r="J75">
+        <v>6</v>
+      </c>
+      <c r="K75">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="9" t="s">
+        <v>636</v>
+      </c>
+      <c r="B76">
+        <v>0.00056909624258689637</v>
+      </c>
+      <c r="C76">
+        <v>0.025838928078602361</v>
+      </c>
+      <c r="D76">
+        <v>0.00039168499224281406</v>
+      </c>
+      <c r="E76">
+        <v>0.0042293993486251522</v>
+      </c>
+      <c r="F76">
+        <v>0.0090309974185953344</v>
+      </c>
+      <c r="G76">
+        <v>0.78962677824290572</v>
+      </c>
+      <c r="H76">
+        <v>2.8431672696806559e-05</v>
+      </c>
+      <c r="I76">
+        <v>0.1702846840037448</v>
+      </c>
+      <c r="J76">
+        <v>6</v>
+      </c>
+      <c r="K76">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="9" t="s">
+        <v>637</v>
+      </c>
+      <c r="B77">
+        <v>0.00042124373393653402</v>
+      </c>
+      <c r="C77">
+        <v>3.0863264999807804e-07</v>
+      </c>
+      <c r="D77">
+        <v>0.00019574331725664219</v>
+      </c>
+      <c r="E77">
+        <v>1.0127546084405618e-10</v>
+      </c>
+      <c r="F77">
+        <v>0.00282814693872285</v>
+      </c>
+      <c r="G77">
+        <v>0.99648683201550692</v>
+      </c>
+      <c r="H77">
+        <v>4.7687404710562419e-07</v>
+      </c>
+      <c r="I77">
+        <v>6.7248386604463033e-05</v>
+      </c>
+      <c r="J77">
+        <v>6</v>
+      </c>
+      <c r="K77">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="9" t="s">
+        <v>638</v>
+      </c>
+      <c r="B78">
+        <v>0.0078098199531751707</v>
+      </c>
+      <c r="C78">
+        <v>3.5336533462326004e-09</v>
+      </c>
+      <c r="D78">
+        <v>2.0981165234748303e-06</v>
+      </c>
+      <c r="E78">
+        <v>2.9003848076880373e-12</v>
+      </c>
+      <c r="F78">
+        <v>0.00034096969542939625</v>
+      </c>
+      <c r="G78">
+        <v>0.9916867249140342</v>
+      </c>
+      <c r="H78">
+        <v>7.5604294930530539e-07</v>
+      </c>
+      <c r="I78">
+        <v>0.0001596277413347817</v>
+      </c>
+      <c r="J78">
+        <v>6</v>
+      </c>
+      <c r="K78">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="9" t="s">
+        <v>639</v>
+      </c>
+      <c r="B79">
+        <v>0.00043835998351487808</v>
+      </c>
+      <c r="C79">
+        <v>1.1965330582277895e-08</v>
+      </c>
+      <c r="D79">
+        <v>4.5960864668792838e-07</v>
+      </c>
+      <c r="E79">
+        <v>1.7883210672919084e-08</v>
+      </c>
+      <c r="F79">
+        <v>0.0014708535292157208</v>
+      </c>
+      <c r="G79">
+        <v>0.99788520697544314</v>
+      </c>
+      <c r="H79">
+        <v>3.2113692472536996e-05</v>
+      </c>
+      <c r="I79">
+        <v>0.00017297636216572087</v>
+      </c>
+      <c r="J79">
+        <v>6</v>
+      </c>
+      <c r="K79">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="9" t="s">
+        <v>640</v>
+      </c>
+      <c r="B80">
+        <v>0.00044175522454080224</v>
+      </c>
+      <c r="C80">
+        <v>0.00047209396535101525</v>
+      </c>
+      <c r="D80">
+        <v>5.1753469228411671e-05</v>
+      </c>
+      <c r="E80">
+        <v>0.0003824795542756426</v>
+      </c>
+      <c r="F80">
+        <v>0.0013368174215518847</v>
+      </c>
+      <c r="G80">
+        <v>0.99512437336151938</v>
+      </c>
+      <c r="H80">
+        <v>0.00011056109497933378</v>
+      </c>
+      <c r="I80">
+        <v>0.0020801659085536608</v>
+      </c>
+      <c r="J80">
+        <v>6</v>
+      </c>
+      <c r="K80">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="9" t="s">
+        <v>641</v>
+      </c>
+      <c r="B81">
+        <v>1.6946473475189766e-06</v>
+      </c>
+      <c r="C81">
+        <v>3.2068751868113595e-11</v>
+      </c>
+      <c r="D81">
+        <v>1.8466919520981648e-07</v>
+      </c>
+      <c r="E81">
+        <v>2.2199418893482485e-14</v>
+      </c>
+      <c r="F81">
+        <v>0.010790741551053218</v>
+      </c>
+      <c r="G81">
+        <v>0.98920388886392652</v>
+      </c>
+      <c r="H81">
+        <v>2.6978155333149901e-06</v>
+      </c>
+      <c r="I81">
+        <v>7.9242085327052853e-07</v>
+      </c>
+      <c r="J81">
+        <v>6</v>
+      </c>
+      <c r="K81">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="9" t="s">
+        <v>642</v>
+      </c>
+      <c r="B82">
+        <v>2.3527714816417138e-06</v>
+      </c>
+      <c r="C82">
+        <v>2.3251518434522767e-07</v>
+      </c>
+      <c r="D82">
+        <v>0.0002085549346590905</v>
+      </c>
+      <c r="E82">
+        <v>1.0400880343000361e-10</v>
+      </c>
+      <c r="F82">
+        <v>0.0019353727041053394</v>
+      </c>
+      <c r="G82">
+        <v>0.99777744946871283</v>
+      </c>
+      <c r="H82">
+        <v>1.0447058640420573e-05</v>
+      </c>
+      <c r="I82">
+        <v>6.5590443207367576e-05</v>
+      </c>
+      <c r="J82">
+        <v>6</v>
+      </c>
+      <c r="K82">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="9" t="s">
+        <v>643</v>
+      </c>
+      <c r="B83">
+        <v>0.00043279910018982566</v>
+      </c>
+      <c r="C83">
+        <v>1.6956202975975596e-08</v>
+      </c>
+      <c r="D83">
+        <v>0.00026656047538392721</v>
+      </c>
+      <c r="E83">
+        <v>3.7730802292438051e-09</v>
+      </c>
+      <c r="F83">
+        <v>0.0018249680902185335</v>
+      </c>
+      <c r="G83">
+        <v>0.99737598427808349</v>
+      </c>
+      <c r="H83">
+        <v>1.7457981153206138e-05</v>
+      </c>
+      <c r="I83">
+        <v>8.2209345687679028e-05</v>
+      </c>
+      <c r="J83">
+        <v>6</v>
+      </c>
+      <c r="K83">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="9" t="s">
+        <v>644</v>
+      </c>
+      <c r="B84">
+        <v>4.513710256069646e-06</v>
+      </c>
+      <c r="C84">
+        <v>3.1567480927448793e-10</v>
+      </c>
+      <c r="D84">
+        <v>1.8433054545437689e-08</v>
+      </c>
+      <c r="E84">
+        <v>2.0141482787618882e-12</v>
+      </c>
+      <c r="F84">
+        <v>0.00084070395290585388</v>
+      </c>
+      <c r="G84">
+        <v>0.9991139523355318</v>
+      </c>
+      <c r="H84">
+        <v>1.9804136990320983e-06</v>
+      </c>
+      <c r="I84">
+        <v>3.8830836863514432e-05</v>
+      </c>
+      <c r="J84">
+        <v>6</v>
+      </c>
+      <c r="K84">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="9" t="s">
+        <v>645</v>
+      </c>
+      <c r="B85">
+        <v>0.0022372469166368389</v>
+      </c>
+      <c r="C85">
+        <v>0.00019295570824903044</v>
+      </c>
+      <c r="D85">
+        <v>0.0042953060294146726</v>
+      </c>
+      <c r="E85">
+        <v>2.0345018948256273e-08</v>
+      </c>
+      <c r="F85">
+        <v>0.013179780674648969</v>
+      </c>
+      <c r="G85">
+        <v>0.97950661383919646</v>
+      </c>
+      <c r="H85">
+        <v>1.0401702445926637e-06</v>
+      </c>
+      <c r="I85">
+        <v>0.00058703631659038518</v>
+      </c>
+      <c r="J85">
+        <v>6</v>
+      </c>
+      <c r="K85">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="9" t="s">
+        <v>646</v>
+      </c>
+      <c r="B86">
+        <v>0.0032172111466090354</v>
+      </c>
+      <c r="C86">
+        <v>0.0002729861305087772</v>
+      </c>
+      <c r="D86">
+        <v>0.00011881259689866079</v>
+      </c>
+      <c r="E86">
+        <v>4.0321917120906754e-06</v>
+      </c>
+      <c r="F86">
+        <v>0.0076001898367209896</v>
+      </c>
+      <c r="G86">
+        <v>0.9874191190612206</v>
+      </c>
+      <c r="H86">
+        <v>7.8919130045643966e-05</v>
+      </c>
+      <c r="I86">
+        <v>0.0012887299062842501</v>
+      </c>
+      <c r="J86">
+        <v>6</v>
+      </c>
+      <c r="K86">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="9" t="s">
+        <v>647</v>
+      </c>
+      <c r="B87">
+        <v>0.00072314600623735203</v>
+      </c>
+      <c r="C87">
+        <v>0.024487337686259256</v>
+      </c>
+      <c r="D87">
+        <v>0.018559094876008781</v>
+      </c>
+      <c r="E87">
+        <v>4.6212764373684126e-07</v>
+      </c>
+      <c r="F87">
+        <v>0.0059804246177936754</v>
+      </c>
+      <c r="G87">
+        <v>0.94538490253255525</v>
+      </c>
+      <c r="H87">
+        <v>4.8701572448907313e-06</v>
+      </c>
+      <c r="I87">
+        <v>0.0048597619962570289</v>
+      </c>
+      <c r="J87">
+        <v>6</v>
+      </c>
+      <c r="K87">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="9" t="s">
+        <v>648</v>
+      </c>
+      <c r="B88">
+        <v>0.0033794788973337234</v>
+      </c>
+      <c r="C88">
+        <v>0.023721888959030765</v>
+      </c>
+      <c r="D88">
+        <v>0.0044676929863318561</v>
+      </c>
+      <c r="E88">
+        <v>0.0033410562601310927</v>
+      </c>
+      <c r="F88">
+        <v>0.037211331322934312</v>
+      </c>
+      <c r="G88">
+        <v>0.9126302357985544</v>
+      </c>
+      <c r="H88">
+        <v>0.0014478651928119602</v>
+      </c>
+      <c r="I88">
+        <v>0.013800450582871854</v>
+      </c>
+      <c r="J88">
+        <v>6</v>
+      </c>
+      <c r="K88">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="9" t="s">
+        <v>649</v>
+      </c>
+      <c r="B89">
+        <v>0.0024284702280659579</v>
+      </c>
+      <c r="C89">
+        <v>0.00064234894397765055</v>
+      </c>
+      <c r="D89">
+        <v>0.0040095486199032823</v>
+      </c>
+      <c r="E89">
+        <v>9.815796193767473e-06</v>
+      </c>
+      <c r="F89">
+        <v>0.012721867614044893</v>
+      </c>
+      <c r="G89">
+        <v>0.97866329733362978</v>
+      </c>
+      <c r="H89">
+        <v>6.5405444703763886e-05</v>
+      </c>
+      <c r="I89">
+        <v>0.0014592460194810186</v>
+      </c>
+      <c r="J89">
+        <v>6</v>
+      </c>
+      <c r="K89">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="9" t="s">
+        <v>650</v>
+      </c>
+      <c r="B90">
+        <v>0.0083410658741171987</v>
+      </c>
+      <c r="C90">
+        <v>0.042159032038750169</v>
+      </c>
+      <c r="D90">
+        <v>0.020659850307414906</v>
+      </c>
+      <c r="E90">
+        <v>0.0017308805239273869</v>
+      </c>
+      <c r="F90">
+        <v>0.054595512447071032</v>
+      </c>
+      <c r="G90">
+        <v>0.85779332431010213</v>
+      </c>
+      <c r="H90">
+        <v>0.001801878552658697</v>
+      </c>
+      <c r="I90">
+        <v>0.012918455945958597</v>
+      </c>
+      <c r="J90">
+        <v>6</v>
+      </c>
+      <c r="K90">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="9" t="s">
+        <v>651</v>
+      </c>
+      <c r="B91">
+        <v>0.00079393681832432342</v>
+      </c>
+      <c r="C91">
+        <v>0.0096858931357637901</v>
+      </c>
+      <c r="D91">
+        <v>0.0011502237014952162</v>
+      </c>
+      <c r="E91">
+        <v>2.4237235561185414e-05</v>
+      </c>
+      <c r="F91">
+        <v>0.016272180855283553</v>
+      </c>
+      <c r="G91">
+        <v>0.96935404537887815</v>
+      </c>
+      <c r="H91">
+        <v>3.1079258500324748e-05</v>
+      </c>
+      <c r="I91">
+        <v>0.0026884036161935105</v>
+      </c>
+      <c r="J91">
+        <v>6</v>
+      </c>
+      <c r="K91">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="9" t="s">
+        <v>652</v>
+      </c>
+      <c r="B92">
+        <v>0.0012169769845499509</v>
+      </c>
+      <c r="C92">
+        <v>1.0845838534631331e-09</v>
+      </c>
+      <c r="D92">
+        <v>2.070262198282925e-05</v>
+      </c>
+      <c r="E92">
+        <v>6.4200598630321356e-12</v>
+      </c>
+      <c r="F92">
+        <v>0.00013949566244055091</v>
+      </c>
+      <c r="G92">
+        <v>0.9980099832433087</v>
+      </c>
+      <c r="H92">
+        <v>2.2987322443342536e-05</v>
+      </c>
+      <c r="I92">
+        <v>0.00058985307427059748</v>
+      </c>
+      <c r="J92">
+        <v>6</v>
+      </c>
+      <c r="K92">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="9" t="s">
+        <v>653</v>
+      </c>
+      <c r="B93">
+        <v>0.0045917723815164522</v>
+      </c>
+      <c r="C93">
+        <v>2.2174856412934364e-07</v>
+      </c>
+      <c r="D93">
+        <v>2.3267005255504963e-07</v>
+      </c>
+      <c r="E93">
+        <v>9.1688214804574722e-08</v>
+      </c>
+      <c r="F93">
+        <v>0.00039621058794303749</v>
+      </c>
+      <c r="G93">
+        <v>0.99484719730067261</v>
+      </c>
+      <c r="H93">
+        <v>1.2305652139275256e-05</v>
+      </c>
+      <c r="I93">
+        <v>0.00015196797089706446</v>
+      </c>
+      <c r="J93">
+        <v>6</v>
+      </c>
+      <c r="K93">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="9" t="s">
+        <v>654</v>
+      </c>
+      <c r="B94">
+        <v>0.0044462538848976593</v>
+      </c>
+      <c r="C94">
+        <v>0.00022273131069962512</v>
+      </c>
+      <c r="D94">
+        <v>0.00092423240359786952</v>
+      </c>
+      <c r="E94">
+        <v>3.328186229662476e-08</v>
+      </c>
+      <c r="F94">
+        <v>0.0028518915863354976</v>
+      </c>
+      <c r="G94">
+        <v>0.99028492037377802</v>
+      </c>
+      <c r="H94">
+        <v>5.2447235412823081e-06</v>
+      </c>
+      <c r="I94">
+        <v>0.0012646924352877845</v>
+      </c>
+      <c r="J94">
+        <v>6</v>
+      </c>
+      <c r="K94">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="9" t="s">
+        <v>655</v>
+      </c>
+      <c r="B95">
+        <v>0.0020641074497894287</v>
+      </c>
+      <c r="C95">
+        <v>1.8386607507910973e-08</v>
+      </c>
+      <c r="D95">
+        <v>7.3207586148282494e-06</v>
+      </c>
+      <c r="E95">
+        <v>1.4669023072970844e-08</v>
+      </c>
+      <c r="F95">
+        <v>0.00021698577221339584</v>
+      </c>
+      <c r="G95">
+        <v>0.99768148147437041</v>
+      </c>
+      <c r="H95">
+        <v>5.585083325180125e-07</v>
+      </c>
+      <c r="I95">
+        <v>2.9512981048861294e-05</v>
+      </c>
+      <c r="J95">
+        <v>6</v>
+      </c>
+      <c r="K95">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="9" t="s">
+        <v>656</v>
+      </c>
+      <c r="B96">
+        <v>0.0031909055448548444</v>
+      </c>
+      <c r="C96">
+        <v>7.1403910345072458e-07</v>
+      </c>
+      <c r="D96">
+        <v>4.5008430319701591e-05</v>
+      </c>
+      <c r="E96">
+        <v>9.9544798565463678e-09</v>
+      </c>
+      <c r="F96">
+        <v>0.0010357316196475152</v>
+      </c>
+      <c r="G96">
+        <v>0.99556072067495271</v>
+      </c>
+      <c r="H96">
+        <v>4.6592666014800363e-06</v>
+      </c>
+      <c r="I96">
+        <v>0.00016225047004065496</v>
+      </c>
+      <c r="J96">
+        <v>6</v>
+      </c>
+      <c r="K96">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="9" t="s">
+        <v>657</v>
+      </c>
+      <c r="B97">
+        <v>0.0027479739079017697</v>
+      </c>
+      <c r="C97">
+        <v>8.3807079555051182e-07</v>
+      </c>
+      <c r="D97">
+        <v>3.1815489430025395e-06</v>
+      </c>
+      <c r="E97">
+        <v>5.1199742750903349e-08</v>
+      </c>
+      <c r="F97">
+        <v>0.0026270300092924273</v>
+      </c>
+      <c r="G97">
+        <v>0.99428188789209315</v>
+      </c>
+      <c r="H97">
+        <v>1.9622501532859991e-05</v>
+      </c>
+      <c r="I97">
+        <v>0.0003194148696983664</v>
+      </c>
+      <c r="J97">
+        <v>6</v>
+      </c>
+      <c r="K97">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="9" t="s">
+        <v>658</v>
+      </c>
+      <c r="B98">
+        <v>0.0015549582179875592</v>
+      </c>
+      <c r="C98">
+        <v>4.7186478732302638e-07</v>
+      </c>
+      <c r="D98">
+        <v>3.2501698988299738e-06</v>
+      </c>
+      <c r="E98">
+        <v>1.6448733312593146e-08</v>
+      </c>
+      <c r="F98">
+        <v>0.0017189635541056954</v>
+      </c>
+      <c r="G98">
+        <v>0.99563897401342438</v>
+      </c>
+      <c r="H98">
+        <v>0.00075818485776149244</v>
+      </c>
+      <c r="I98">
+        <v>0.00032518087330130042</v>
+      </c>
+      <c r="J98">
+        <v>6</v>
+      </c>
+      <c r="K98">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="9" t="s">
+        <v>659</v>
+      </c>
+      <c r="B99">
+        <v>0.00042862659533715022</v>
+      </c>
+      <c r="C99">
+        <v>0.001243825867404402</v>
+      </c>
+      <c r="D99">
+        <v>0.00019916810465101781</v>
+      </c>
+      <c r="E99">
+        <v>3.1217610947424538e-09</v>
+      </c>
+      <c r="F99">
+        <v>0.0011930272177016451</v>
+      </c>
+      <c r="G99">
+        <v>1.818585694960665e-07</v>
+      </c>
+      <c r="H99">
+        <v>0.99654270659823863</v>
+      </c>
+      <c r="I99">
+        <v>0.00039246063633651025</v>
+      </c>
+      <c r="J99">
+        <v>7</v>
+      </c>
+      <c r="K99">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="9" t="s">
+        <v>660</v>
+      </c>
+      <c r="B100">
+        <v>0.0011212791783981868</v>
+      </c>
+      <c r="C100">
+        <v>2.630909320301214e-05</v>
+      </c>
+      <c r="D100">
+        <v>0.00041206539642639494</v>
+      </c>
+      <c r="E100">
+        <v>3.7380472432882287e-09</v>
+      </c>
+      <c r="F100">
+        <v>0.0011286504104325481</v>
+      </c>
+      <c r="G100">
+        <v>8.940696451187227e-05</v>
+      </c>
+      <c r="H100">
+        <v>0.99503006338853806</v>
+      </c>
+      <c r="I100">
+        <v>0.0021922218304426849</v>
+      </c>
+      <c r="J100">
+        <v>7</v>
+      </c>
+      <c r="K100">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="9" t="s">
+        <v>661</v>
+      </c>
+      <c r="B101">
+        <v>0.0006231637620877959</v>
+      </c>
+      <c r="C101">
+        <v>8.569811678852403e-06</v>
+      </c>
+      <c r="D101">
+        <v>0.0012876613820867711</v>
+      </c>
+      <c r="E101">
+        <v>6.3823665517020487e-11</v>
+      </c>
+      <c r="F101">
+        <v>0.0011357966700252483</v>
+      </c>
+      <c r="G101">
+        <v>1.1987224860019987e-07</v>
+      </c>
+      <c r="H101">
+        <v>0.99560707425470363</v>
+      </c>
+      <c r="I101">
+        <v>0.0013376141833455202</v>
+      </c>
+      <c r="J101">
+        <v>7</v>
+      </c>
+      <c r="K101">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="9" t="s">
+        <v>662</v>
+      </c>
+      <c r="B102">
+        <v>0.0033639367032826245</v>
+      </c>
+      <c r="C102">
+        <v>0.00032052173896249356</v>
+      </c>
+      <c r="D102">
+        <v>0.00026542420616370519</v>
+      </c>
+      <c r="E102">
+        <v>8.6759697994461973e-06</v>
+      </c>
+      <c r="F102">
+        <v>0.00012414652381783449</v>
+      </c>
+      <c r="G102">
+        <v>0.0012782874017706308</v>
+      </c>
+      <c r="H102">
+        <v>0.98726014435292264</v>
+      </c>
+      <c r="I102">
+        <v>0.0073788631032807384</v>
+      </c>
+      <c r="J102">
+        <v>7</v>
+      </c>
+      <c r="K102">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="9" t="s">
+        <v>663</v>
+      </c>
+      <c r="B103">
+        <v>1.902306830778045e-05</v>
+      </c>
+      <c r="C103">
+        <v>0.00060788433244833378</v>
+      </c>
+      <c r="D103">
+        <v>0.00019239574826219132</v>
+      </c>
+      <c r="E103">
+        <v>2.7277708762682301e-12</v>
+      </c>
+      <c r="F103">
+        <v>0.00045113754737725973</v>
+      </c>
+      <c r="G103">
+        <v>2.2274158357912723e-06</v>
+      </c>
+      <c r="H103">
+        <v>0.99749762111154672</v>
+      </c>
+      <c r="I103">
+        <v>0.0012297107734941979</v>
+      </c>
+      <c r="J103">
+        <v>7</v>
+      </c>
+      <c r="K103">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="9" t="s">
+        <v>664</v>
+      </c>
+      <c r="B104">
+        <v>0.00016889681526266321</v>
+      </c>
+      <c r="C104">
+        <v>6.6025842475488398e-05</v>
+      </c>
+      <c r="D104">
+        <v>0.00078073059608349776</v>
+      </c>
+      <c r="E104">
+        <v>1.3431549195056812e-12</v>
+      </c>
+      <c r="F104">
+        <v>0.00023905617495052799</v>
+      </c>
+      <c r="G104">
+        <v>1.8634850365360483e-10</v>
+      </c>
+      <c r="H104">
+        <v>0.99754027614692553</v>
+      </c>
+      <c r="I104">
+        <v>0.0012050142366105147</v>
+      </c>
+      <c r="J104">
+        <v>7</v>
+      </c>
+      <c r="K104">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="9" t="s">
+        <v>665</v>
+      </c>
+      <c r="B105">
+        <v>0.00023898172705837651</v>
+      </c>
+      <c r="C105">
+        <v>0.0053444259164323691</v>
+      </c>
+      <c r="D105">
+        <v>0.0097876680615822925</v>
+      </c>
+      <c r="E105">
+        <v>1.7223235868020627e-08</v>
+      </c>
+      <c r="F105">
+        <v>0.00067854328607903176</v>
+      </c>
+      <c r="G105">
+        <v>1.8063350383082396e-08</v>
+      </c>
+      <c r="H105">
+        <v>0.98336632678848612</v>
+      </c>
+      <c r="I105">
+        <v>0.00058401893377554154</v>
+      </c>
+      <c r="J105">
+        <v>7</v>
+      </c>
+      <c r="K105">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="9" t="s">
+        <v>666</v>
+      </c>
+      <c r="B106">
+        <v>0.0002689455266127928</v>
+      </c>
+      <c r="C106">
+        <v>0.042261621594850189</v>
+      </c>
+      <c r="D106">
+        <v>0.001688949811970136</v>
+      </c>
+      <c r="E106">
+        <v>1.9333080696033973e-11</v>
+      </c>
+      <c r="F106">
+        <v>0.14868320155569578</v>
+      </c>
+      <c r="G106">
+        <v>1.7370749500065672e-07</v>
+      </c>
+      <c r="H106">
+        <v>0.80135340806004118</v>
+      </c>
+      <c r="I106">
+        <v>0.005743699724001787</v>
+      </c>
+      <c r="J106">
+        <v>7</v>
+      </c>
+      <c r="K106">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="9" t="s">
+        <v>667</v>
+      </c>
+      <c r="B107">
+        <v>4.8711169177865854e-06</v>
+      </c>
+      <c r="C107">
+        <v>0.00068410270275857357</v>
+      </c>
+      <c r="D107">
+        <v>0.0027774265676942054</v>
+      </c>
+      <c r="E107">
+        <v>6.4546709735988951e-13</v>
+      </c>
+      <c r="F107">
+        <v>0.0053259594005559676</v>
+      </c>
+      <c r="G107">
+        <v>9.0342025490584967e-08</v>
+      </c>
+      <c r="H107">
+        <v>0.99059787419766276</v>
+      </c>
+      <c r="I107">
+        <v>0.00060967567173966471</v>
+      </c>
+      <c r="J107">
+        <v>7</v>
+      </c>
+      <c r="K107">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="9" t="s">
+        <v>668</v>
+      </c>
+      <c r="B108">
+        <v>0.00075861628250420996</v>
+      </c>
+      <c r="C108">
+        <v>0.017586057675281968</v>
+      </c>
+      <c r="D108">
+        <v>6.5372618885128295e-05</v>
+      </c>
+      <c r="E108">
+        <v>1.3985794447605389e-05</v>
+      </c>
+      <c r="F108">
+        <v>0.00013119528731075553</v>
+      </c>
+      <c r="G108">
+        <v>1.1530212794192906e-07</v>
+      </c>
+      <c r="H108">
+        <v>0.98041653439787346</v>
+      </c>
+      <c r="I108">
+        <v>0.0010281226415689048</v>
+      </c>
+      <c r="J108">
+        <v>7</v>
+      </c>
+      <c r="K108">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="9" t="s">
+        <v>669</v>
+      </c>
+      <c r="B109">
+        <v>0.0018730851615993442</v>
+      </c>
+      <c r="C109">
+        <v>0.0063378332318863003</v>
+      </c>
+      <c r="D109">
+        <v>0.00059075434139353451</v>
+      </c>
+      <c r="E109">
+        <v>1.6037182876912656e-06</v>
+      </c>
+      <c r="F109">
+        <v>0.0018977813445768979</v>
+      </c>
+      <c r="G109">
+        <v>1.4848417816950443e-05</v>
+      </c>
+      <c r="H109">
+        <v>0.98854222897017618</v>
+      </c>
+      <c r="I109">
+        <v>0.00074186481426311143</v>
+      </c>
+      <c r="J109">
+        <v>7</v>
+      </c>
+      <c r="K109">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="9" t="s">
+        <v>670</v>
+      </c>
+      <c r="B110">
+        <v>0.0010555381767370785</v>
+      </c>
+      <c r="C110">
+        <v>0.021227603582644229</v>
+      </c>
+      <c r="D110">
+        <v>0.00061672952739237239</v>
+      </c>
+      <c r="E110">
+        <v>1.1171286880573022e-05</v>
+      </c>
+      <c r="F110">
+        <v>0.0047050379392097113</v>
+      </c>
+      <c r="G110">
+        <v>4.4391779659245553e-05</v>
+      </c>
+      <c r="H110">
+        <v>0.97067255719524581</v>
+      </c>
+      <c r="I110">
+        <v>0.0016669705122309346</v>
+      </c>
+      <c r="J110">
+        <v>7</v>
+      </c>
+      <c r="K110">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="9" t="s">
+        <v>671</v>
+      </c>
+      <c r="B111">
+        <v>0.010352445960263064</v>
+      </c>
+      <c r="C111">
+        <v>0.01300139156037945</v>
+      </c>
+      <c r="D111">
+        <v>0.00043427149656927796</v>
+      </c>
+      <c r="E111">
+        <v>1.6892359935088735e-07</v>
+      </c>
+      <c r="F111">
+        <v>1.7216764584553059e-05</v>
+      </c>
+      <c r="G111">
+        <v>4.2349809290110349e-09</v>
+      </c>
+      <c r="H111">
+        <v>0.96984247180356442</v>
+      </c>
+      <c r="I111">
+        <v>0.0063520292560590077</v>
+      </c>
+      <c r="J111">
+        <v>7</v>
+      </c>
+      <c r="K111">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="9" t="s">
+        <v>672</v>
+      </c>
+      <c r="B112">
+        <v>0.0060901992130033625</v>
+      </c>
+      <c r="C112">
+        <v>0.0044816427782184949</v>
+      </c>
+      <c r="D112">
+        <v>0.0063248889282766204</v>
+      </c>
+      <c r="E112">
+        <v>7.5645824028335298e-05</v>
+      </c>
+      <c r="F112">
+        <v>0.0061879279317844302</v>
+      </c>
+      <c r="G112">
+        <v>1.1091537412252355e-05</v>
+      </c>
+      <c r="H112">
+        <v>0.97595043890522315</v>
+      </c>
+      <c r="I112">
+        <v>0.00087816488205330308</v>
+      </c>
+      <c r="J112">
+        <v>7</v>
+      </c>
+      <c r="K112">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="9" t="s">
+        <v>673</v>
+      </c>
+      <c r="B113">
+        <v>0.0038958729843609763</v>
+      </c>
+      <c r="C113">
+        <v>0.00017302007359854671</v>
+      </c>
+      <c r="D113">
+        <v>0.0089443042719174453</v>
+      </c>
+      <c r="E113">
+        <v>2.1975654472914442e-06</v>
+      </c>
+      <c r="F113">
+        <v>0.0060190219657009318</v>
+      </c>
+      <c r="G113">
+        <v>8.4425559390058244e-07</v>
+      </c>
+      <c r="H113">
+        <v>0.97827919837347466</v>
+      </c>
+      <c r="I113">
+        <v>0.0026855405099061249</v>
+      </c>
+      <c r="J113">
+        <v>7</v>
+      </c>
+      <c r="K113">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="9" t="s">
+        <v>674</v>
+      </c>
+      <c r="B114">
+        <v>0.0043711469964803117</v>
+      </c>
+      <c r="C114">
+        <v>2.2723290427024107e-05</v>
+      </c>
+      <c r="D114">
+        <v>0.00057423905162368009</v>
+      </c>
+      <c r="E114">
+        <v>6.2788476952157597e-08</v>
+      </c>
+      <c r="F114">
+        <v>0.0024322894291961125</v>
+      </c>
+      <c r="G114">
+        <v>9.1348669838523469e-09</v>
+      </c>
+      <c r="H114">
+        <v>0.98985525679472042</v>
+      </c>
+      <c r="I114">
+        <v>0.0027442725142084543</v>
+      </c>
+      <c r="J114">
+        <v>7</v>
+      </c>
+      <c r="K114">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="9" t="s">
+        <v>675</v>
+      </c>
+      <c r="B115">
+        <v>0.0071606221906098015</v>
+      </c>
+      <c r="C115">
+        <v>0.00014602708473397254</v>
+      </c>
+      <c r="D115">
+        <v>0.0016438938509055719</v>
+      </c>
+      <c r="E115">
+        <v>4.7466554635451789e-06</v>
+      </c>
+      <c r="F115">
+        <v>0.0061179832169129828</v>
+      </c>
+      <c r="G115">
+        <v>0.00028296115941939986</v>
+      </c>
+      <c r="H115">
+        <v>0.98032948264884978</v>
+      </c>
+      <c r="I115">
+        <v>0.0043142831931050011</v>
+      </c>
+      <c r="J115">
+        <v>7</v>
+      </c>
+      <c r="K115">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="9" t="s">
+        <v>676</v>
+      </c>
+      <c r="B116">
+        <v>0.0075471043400377556</v>
+      </c>
+      <c r="C116">
+        <v>8.2852210957720204e-05</v>
+      </c>
+      <c r="D116">
+        <v>0.0001812805742387632</v>
+      </c>
+      <c r="E116">
+        <v>5.3352997932669382e-06</v>
+      </c>
+      <c r="F116">
+        <v>0.0024696105249387926</v>
+      </c>
+      <c r="G116">
+        <v>0.0040044879425070665</v>
+      </c>
+      <c r="H116">
+        <v>0.97874602893210738</v>
+      </c>
+      <c r="I116">
+        <v>0.0069633001754192706</v>
+      </c>
+      <c r="J116">
+        <v>7</v>
+      </c>
+      <c r="K116">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="9" t="s">
+        <v>677</v>
+      </c>
+      <c r="B117">
+        <v>0.0016247490337416863</v>
+      </c>
+      <c r="C117">
+        <v>0.00075168635059854824</v>
+      </c>
+      <c r="D117">
+        <v>0.0015045674214521538</v>
+      </c>
+      <c r="E117">
+        <v>1.8814719604930676e-09</v>
+      </c>
+      <c r="F117">
+        <v>0.0029830184741901143</v>
+      </c>
+      <c r="G117">
+        <v>4.3191509056725181e-08</v>
+      </c>
+      <c r="H117">
+        <v>0.99207288745531264</v>
+      </c>
+      <c r="I117">
+        <v>0.001063046191723898</v>
+      </c>
+      <c r="J117">
+        <v>7</v>
+      </c>
+      <c r="K117">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="9" t="s">
+        <v>678</v>
+      </c>
+      <c r="B118">
+        <v>0.0026258123043093489</v>
+      </c>
+      <c r="C118">
+        <v>7.6340517905154171e-06</v>
+      </c>
+      <c r="D118">
+        <v>0.0014303291170733132</v>
+      </c>
+      <c r="E118">
+        <v>2.2088776791845066e-08</v>
+      </c>
+      <c r="F118">
+        <v>0.0023564652131423621</v>
+      </c>
+      <c r="G118">
+        <v>8.8941579094009678e-07</v>
+      </c>
+      <c r="H118">
+        <v>0.99116777070377171</v>
+      </c>
+      <c r="I118">
+        <v>0.0024110771053448984</v>
+      </c>
+      <c r="J118">
+        <v>7</v>
+      </c>
+      <c r="K118">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="9" t="s">
+        <v>679</v>
+      </c>
+      <c r="B119">
+        <v>0.0080593229260003795</v>
+      </c>
+      <c r="C119">
+        <v>0.051924003679059777</v>
+      </c>
+      <c r="D119">
+        <v>0.00038943981382076902</v>
+      </c>
+      <c r="E119">
+        <v>3.4380398475906875e-06</v>
+      </c>
+      <c r="F119">
+        <v>0.0029201163118841127</v>
+      </c>
+      <c r="G119">
+        <v>8.970217046667916e-05</v>
+      </c>
+      <c r="H119">
+        <v>0.91543685283280407</v>
+      </c>
+      <c r="I119">
+        <v>0.021177124226116638</v>
+      </c>
+      <c r="J119">
+        <v>7</v>
+      </c>
+      <c r="K119">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="9" t="s">
+        <v>680</v>
+      </c>
+      <c r="B120">
+        <v>0.0034568942780519637</v>
+      </c>
+      <c r="C120">
+        <v>0.0019370808703667701</v>
+      </c>
+      <c r="D120">
+        <v>0.010403946283767373</v>
+      </c>
+      <c r="E120">
+        <v>1.563748989812858e-06</v>
+      </c>
+      <c r="F120">
+        <v>0.0016194217005855759</v>
+      </c>
+      <c r="G120">
+        <v>1.2788022440812646e-05</v>
+      </c>
+      <c r="H120">
+        <v>0.98089372105387351</v>
+      </c>
+      <c r="I120">
+        <v>0.0016745840419241241</v>
+      </c>
+      <c r="J120">
+        <v>7</v>
+      </c>
+      <c r="K120">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="9" t="s">
+        <v>681</v>
+      </c>
+      <c r="B121">
+        <v>0.00043665117539665307</v>
+      </c>
+      <c r="C121">
+        <v>0.0044835485595366509</v>
+      </c>
+      <c r="D121">
+        <v>0.00026911754790058642</v>
+      </c>
+      <c r="E121">
+        <v>8.4917881807950519e-06</v>
+      </c>
+      <c r="F121">
+        <v>5.4037154516189751e-05</v>
+      </c>
+      <c r="G121">
+        <v>3.0389348920016227e-06</v>
+      </c>
+      <c r="H121">
+        <v>0.99225213660559397</v>
+      </c>
+      <c r="I121">
+        <v>0.0024929782339831899</v>
+      </c>
+      <c r="J121">
+        <v>7</v>
+      </c>
+      <c r="K121">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="9" t="s">
+        <v>682</v>
+      </c>
+      <c r="B122">
+        <v>0.0014059074503137922</v>
+      </c>
+      <c r="C122">
+        <v>1.5108048825624612e-07</v>
+      </c>
+      <c r="D122">
+        <v>0.00085677349953501396</v>
+      </c>
+      <c r="E122">
+        <v>6.2428556626588031e-10</v>
+      </c>
+      <c r="F122">
+        <v>0.0084732173034688003</v>
+      </c>
+      <c r="G122">
+        <v>2.5405832863232883e-05</v>
+      </c>
+      <c r="H122">
+        <v>0.97741816400261705</v>
+      </c>
+      <c r="I122">
+        <v>0.011820380206428338</v>
+      </c>
+      <c r="J122">
+        <v>7</v>
+      </c>
+      <c r="K122">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="9" t="s">
+        <v>683</v>
+      </c>
+      <c r="B123">
+        <v>0.0016076908219516918</v>
+      </c>
+      <c r="C123">
+        <v>0.002782030897686835</v>
+      </c>
+      <c r="D123">
+        <v>0.00086266923679027255</v>
+      </c>
+      <c r="E123">
+        <v>9.3935826536683085e-08</v>
+      </c>
+      <c r="F123">
+        <v>0.00064691719398413485</v>
+      </c>
+      <c r="G123">
+        <v>1.1278287922275551e-06</v>
+      </c>
+      <c r="H123">
+        <v>0.9909489922462803</v>
+      </c>
+      <c r="I123">
+        <v>0.003150477838687897</v>
+      </c>
+      <c r="J123">
+        <v>7</v>
+      </c>
+      <c r="K123">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="9" t="s">
+        <v>684</v>
+      </c>
+      <c r="B124">
+        <v>3.5378362110375261e-06</v>
+      </c>
+      <c r="C124">
+        <v>0.0071387010027934746</v>
+      </c>
+      <c r="D124">
+        <v>0.00076014746905900287</v>
+      </c>
+      <c r="E124">
+        <v>3.8589681096727314e-06</v>
+      </c>
+      <c r="F124">
+        <v>0.00053120671251419857</v>
+      </c>
+      <c r="G124">
+        <v>1.0738479210427512e-05</v>
+      </c>
+      <c r="H124">
+        <v>2.920922527204888e-07</v>
+      </c>
+      <c r="I124">
+        <v>0.99155151743984948</v>
+      </c>
+      <c r="J124">
+        <v>8</v>
+      </c>
+      <c r="K124">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="9" t="s">
+        <v>685</v>
+      </c>
+      <c r="B125">
+        <v>4.9929504851305161e-06</v>
+      </c>
+      <c r="C125">
+        <v>0.0032080194839668964</v>
+      </c>
+      <c r="D125">
+        <v>0.00023527563646065088</v>
+      </c>
+      <c r="E125">
+        <v>4.052476116102413e-06</v>
+      </c>
+      <c r="F125">
+        <v>0.0002418270336675646</v>
+      </c>
+      <c r="G125">
+        <v>2.9365624639934301e-05</v>
+      </c>
+      <c r="H125">
+        <v>2.4899039879154955e-06</v>
+      </c>
+      <c r="I125">
+        <v>0.99627397689067587</v>
+      </c>
+      <c r="J125">
+        <v>8</v>
+      </c>
+      <c r="K125">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="9" t="s">
+        <v>686</v>
+      </c>
+      <c r="B126">
+        <v>4.6363405968182441e-05</v>
+      </c>
+      <c r="C126">
+        <v>0.001932553250361999</v>
+      </c>
+      <c r="D126">
+        <v>0.00068694857088772798</v>
+      </c>
+      <c r="E126">
+        <v>2.6078611074931092e-08</v>
+      </c>
+      <c r="F126">
+        <v>0.0026627164221442907</v>
+      </c>
+      <c r="G126">
+        <v>1.2490501272865348e-05</v>
+      </c>
+      <c r="H126">
+        <v>2.2925108058786711e-06</v>
+      </c>
+      <c r="I126">
+        <v>0.99465660925994803</v>
+      </c>
+      <c r="J126">
+        <v>8</v>
+      </c>
+      <c r="K126">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="9" t="s">
+        <v>687</v>
+      </c>
+      <c r="B127">
+        <v>6.0206520084266194e-06</v>
+      </c>
+      <c r="C127">
+        <v>0.023002247803076362</v>
+      </c>
+      <c r="D127">
+        <v>0.0033258223350379908</v>
+      </c>
+      <c r="E127">
+        <v>6.0468777359711304e-08</v>
+      </c>
+      <c r="F127">
+        <v>0.0010801172878793608</v>
+      </c>
+      <c r="G127">
+        <v>0.00044518775058494342</v>
+      </c>
+      <c r="H127">
+        <v>3.7287382043444884e-06</v>
+      </c>
+      <c r="I127">
+        <v>0.97213681496443127</v>
+      </c>
+      <c r="J127">
+        <v>8</v>
+      </c>
+      <c r="K127">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="9" t="s">
+        <v>688</v>
+      </c>
+      <c r="B128">
+        <v>0.0050624184538123904</v>
+      </c>
+      <c r="C128">
+        <v>0.0014952424480129953</v>
+      </c>
+      <c r="D128">
+        <v>0.0020351318755843619</v>
+      </c>
+      <c r="E128">
+        <v>0.0031619699919974795</v>
+      </c>
+      <c r="F128">
+        <v>0.2446307035642877</v>
+      </c>
+      <c r="G128">
+        <v>6.8915568803233469e-06</v>
+      </c>
+      <c r="H128">
+        <v>7.7073140417552807e-07</v>
+      </c>
+      <c r="I128">
+        <v>0.74360687137802062</v>
+      </c>
+      <c r="J128">
+        <v>8</v>
+      </c>
+      <c r="K128">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="9" t="s">
+        <v>689</v>
+      </c>
+      <c r="B129">
+        <v>3.5911951428426084e-05</v>
+      </c>
+      <c r="C129">
+        <v>0.0055317622229816782</v>
+      </c>
+      <c r="D129">
+        <v>0.00065331835793092346</v>
+      </c>
+      <c r="E129">
+        <v>5.5401246122931586e-07</v>
+      </c>
+      <c r="F129">
+        <v>0.00043078998833727102</v>
+      </c>
+      <c r="G129">
+        <v>2.0890200690184338e-05</v>
+      </c>
+      <c r="H129">
+        <v>3.235274455728302e-05</v>
+      </c>
+      <c r="I129">
+        <v>0.9932944205216131</v>
+      </c>
+      <c r="J129">
+        <v>8</v>
+      </c>
+      <c r="K129">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="9" t="s">
+        <v>690</v>
+      </c>
+      <c r="B130">
+        <v>0.0015740607495988122</v>
+      </c>
+      <c r="C130">
+        <v>0.024009310316206491</v>
+      </c>
+      <c r="D130">
+        <v>0.0084727448959294738</v>
+      </c>
+      <c r="E130">
+        <v>0.00013081109354713084</v>
+      </c>
+      <c r="F130">
+        <v>0.0018392092179680083</v>
+      </c>
+      <c r="G130">
+        <v>8.363394063348175e-06</v>
+      </c>
+      <c r="H130">
+        <v>2.5487751065968843e-05</v>
+      </c>
+      <c r="I130">
+        <v>0.96394001258162065</v>
+      </c>
+      <c r="J130">
+        <v>8</v>
+      </c>
+      <c r="K130">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="9" t="s">
+        <v>691</v>
+      </c>
+      <c r="B131">
+        <v>0.0011158575380906504</v>
+      </c>
+      <c r="C131">
+        <v>0.004760137022643102</v>
+      </c>
+      <c r="D131">
+        <v>0.003948269931851908</v>
+      </c>
+      <c r="E131">
+        <v>0.00062138109101481814</v>
+      </c>
+      <c r="F131">
+        <v>0.0015526170730277757</v>
+      </c>
+      <c r="G131">
+        <v>5.7438628013717757e-06</v>
+      </c>
+      <c r="H131">
+        <v>4.6972521089694015e-05</v>
+      </c>
+      <c r="I131">
+        <v>0.98794902095948067</v>
+      </c>
+      <c r="J131">
+        <v>8</v>
+      </c>
+      <c r="K131">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="9" t="s">
+        <v>692</v>
+      </c>
+      <c r="B132">
+        <v>0.00043570362387452475</v>
+      </c>
+      <c r="C132">
+        <v>0.025264744263341726</v>
+      </c>
+      <c r="D132">
+        <v>0.0031877118951171486</v>
+      </c>
+      <c r="E132">
+        <v>2.7547693718061096e-06</v>
+      </c>
+      <c r="F132">
+        <v>0.0009614386965201752</v>
+      </c>
+      <c r="G132">
+        <v>1.7226813010450606e-05</v>
+      </c>
+      <c r="H132">
+        <v>0.00049261820901847875</v>
+      </c>
+      <c r="I132">
+        <v>0.96963780172974579</v>
+      </c>
+      <c r="J132">
+        <v>8</v>
+      </c>
+      <c r="K132">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="9" t="s">
+        <v>693</v>
+      </c>
+      <c r="B133">
+        <v>0.00079449180510353845</v>
+      </c>
+      <c r="C133">
+        <v>0.054122130949197628</v>
+      </c>
+      <c r="D133">
+        <v>0.00380536579478113</v>
+      </c>
+      <c r="E133">
+        <v>2.5482875119869488e-05</v>
+      </c>
+      <c r="F133">
+        <v>0.0059950389833386001</v>
+      </c>
+      <c r="G133">
+        <v>0.00018027832826935863</v>
+      </c>
+      <c r="H133">
+        <v>2.0959946910077543e-05</v>
+      </c>
+      <c r="I133">
+        <v>0.93505625131727987</v>
+      </c>
+      <c r="J133">
+        <v>8</v>
+      </c>
+      <c r="K133">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="9" t="s">
+        <v>694</v>
+      </c>
+      <c r="B134">
+        <v>0.013178983530348487</v>
+      </c>
+      <c r="C134">
+        <v>0.067671869168450374</v>
+      </c>
+      <c r="D134">
+        <v>0.018994155672014779</v>
+      </c>
+      <c r="E134">
+        <v>0.0074918426841333119</v>
+      </c>
+      <c r="F134">
+        <v>0.073223891596277318</v>
+      </c>
+      <c r="G134">
+        <v>0.15328178707508464</v>
+      </c>
+      <c r="H134">
+        <v>0.00084475305100711027</v>
+      </c>
+      <c r="I134">
+        <v>0.66531271722268404</v>
+      </c>
+      <c r="J134">
+        <v>8</v>
+      </c>
+      <c r="K134">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="9" t="s">
+        <v>695</v>
+      </c>
+      <c r="B135">
+        <v>0.070650292306958545</v>
+      </c>
+      <c r="C135">
+        <v>0.11731061447510323</v>
+      </c>
+      <c r="D135">
+        <v>0.049095722594292207</v>
+      </c>
+      <c r="E135">
+        <v>0.026898986545413315</v>
+      </c>
+      <c r="F135">
+        <v>0.076139945090715255</v>
+      </c>
+      <c r="G135">
+        <v>0.11147035848307975</v>
+      </c>
+      <c r="H135">
+        <v>0.073868610605552498</v>
+      </c>
+      <c r="I135">
+        <v>0.47456546989888521</v>
+      </c>
+      <c r="J135">
+        <v>8</v>
+      </c>
+      <c r="K135">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="9" t="s">
+        <v>696</v>
+      </c>
+      <c r="B136">
+        <v>0.046895434489769836</v>
+      </c>
+      <c r="C136">
+        <v>0.0020192885253566633</v>
+      </c>
+      <c r="D136">
+        <v>0.26370929462514536</v>
+      </c>
+      <c r="E136">
+        <v>5.102391284622396e-07</v>
+      </c>
+      <c r="F136">
+        <v>0.2519379118532758</v>
+      </c>
+      <c r="G136">
+        <v>4.7728716084882174e-05</v>
+      </c>
+      <c r="H136">
+        <v>0.42970913752573769</v>
+      </c>
+      <c r="I136">
+        <v>0.0056806940255012027</v>
+      </c>
+      <c r="J136">
+        <v>7</v>
+      </c>
+      <c r="K136">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="9" t="s">
+        <v>697</v>
+      </c>
+      <c r="B137">
+        <v>0.0064550387553359307</v>
+      </c>
+      <c r="C137">
+        <v>0.019162898478312845</v>
+      </c>
+      <c r="D137">
+        <v>0.0022540350454611441</v>
+      </c>
+      <c r="E137">
+        <v>2.2076928752834618e-05</v>
+      </c>
+      <c r="F137">
+        <v>0.0011957121712066821</v>
+      </c>
+      <c r="G137">
+        <v>5.4240016165883948e-05</v>
+      </c>
+      <c r="H137">
+        <v>0.91430672961068682</v>
+      </c>
+      <c r="I137">
+        <v>0.056549268994077813</v>
+      </c>
+      <c r="J137">
+        <v>7</v>
+      </c>
+      <c r="K137">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="9" t="s">
+        <v>698</v>
+      </c>
+      <c r="B138">
+        <v>0.0015470324519877446</v>
+      </c>
+      <c r="C138">
+        <v>0.49208231496387678</v>
+      </c>
+      <c r="D138">
+        <v>0.0037125431041177678</v>
+      </c>
+      <c r="E138">
+        <v>3.8208034183477191e-06</v>
+      </c>
+      <c r="F138">
+        <v>0.26080161304106342</v>
+      </c>
+      <c r="G138">
+        <v>0.0001279683884980509</v>
+      </c>
+      <c r="H138">
+        <v>0.00031970505089385097</v>
+      </c>
+      <c r="I138">
+        <v>0.24140500219614405</v>
+      </c>
+      <c r="J138">
+        <v>2</v>
+      </c>
+      <c r="K138">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
 </file>